--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_721.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_721.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d1139094-Reviews-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>145</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Staybridge-Suites-Palmdale.h2027095.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_721.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_721.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1862 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r563967815-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32848</t>
+  </si>
+  <si>
+    <t>1139094</t>
+  </si>
+  <si>
+    <t>563967815</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Very friendly front desk staff, very helpful.</t>
+  </si>
+  <si>
+    <t>Excellent friendly staff.  Very helpful and accomodating.  Stayed here for 1 1/2 months. Complimentary weekday breakfast  and light dinner available 3 days. Laundry is free just bring detergent.  Excellent choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Marcia P, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Excellent friendly staff.  Very helpful and accomodating.  Stayed here for 1 1/2 months. Complimentary weekday breakfast  and light dinner available 3 days. Laundry is free just bring detergent.  Excellent choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r547596336-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>547596336</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Best hotel we have stayed at ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We came here for a softball tournament in Palmdale.   The hotel staff has been wonderful to our group.  We had the entire team in the movie room.  They have popcorn,  drinks and movies for everyone.  We had a pizza movie night for the team.  The rooms are huge and very clean.  Breakfast was great.  They even had stuff to make sandwiches to eat or go.    When we come back to Palmdale, we will only stay at Staybridge!!! </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r545821636-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>545821636</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>My husband and I have been staying here for the past three weeks for business and we couldn't be more pleased with all the Staybridge Suites Palmdale has to offer.  It is very apparent that the company values their employees and it shows in the quality of service offered here.  Everyone we have encountered has been very pleasant and professional.  Each person has done everything possible to make our stay comfortable and immediately address any issues we have had.  We stayed in a one room all inclusive suite which is very comfortable and includes a full kitchenette.  The style is up to date and the bed is very comfortable.  The location is very close to shopping and restaurants as well as medical facilities, everything one might need, however the area is secluded and quiet.  Staybridge offers daily shuttle service at no extra charge to the mall, shopping and restaurant areas which is extremely nice and helpful.  Included in the price is a daily hot breakfast and hot meal 5 nights a week, free wifi and cable as well as a laundry room for guests with five washers and dryers - no need to get quarters! Yay! Truly all our needs are met here.  All that being said, my favorite part of our stay has been the extremely pleasant staff especially, Eric, Crystal, and Eddie.  Thanks to everyone for making our stay great!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>My husband and I have been staying here for the past three weeks for business and we couldn't be more pleased with all the Staybridge Suites Palmdale has to offer.  It is very apparent that the company values their employees and it shows in the quality of service offered here.  Everyone we have encountered has been very pleasant and professional.  Each person has done everything possible to make our stay comfortable and immediately address any issues we have had.  We stayed in a one room all inclusive suite which is very comfortable and includes a full kitchenette.  The style is up to date and the bed is very comfortable.  The location is very close to shopping and restaurants as well as medical facilities, everything one might need, however the area is secluded and quiet.  Staybridge offers daily shuttle service at no extra charge to the mall, shopping and restaurant areas which is extremely nice and helpful.  Included in the price is a daily hot breakfast and hot meal 5 nights a week, free wifi and cable as well as a laundry room for guests with five washers and dryers - no need to get quarters! Yay! Truly all our needs are met here.  All that being said, my favorite part of our stay has been the extremely pleasant staff especially, Eric, Crystal, and Eddie.  Thanks to everyone for making our stay great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r506489469-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>506489469</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Never leave ANYTHING behind</t>
+  </si>
+  <si>
+    <t>My wife stayed at this hotel for her business trip July20-21. While overall the room and building are ok, normal for the stars. There was an alarming  event that cast a shadow on the whole experience.She left her ultrasonic rechargeable toothbrush in the room, should not be a problem, right? Everyone has things left behind to get them returned by friendly hotel staff. NOT in Staybridge Suites Palmdale.She called to report it in about the same day and left her number to call back. Did not hear from them, called again next day. They said they got her number wrong, or so they told us when we called them the next day to check on the item. Two days passed  - not a word. We call again, they tell stories of "not being able to find the cleaning shift supervisor". Called again - still no word from supervisor, and they couldn't find it in "lost and found" bins.Called a week later - still "nobody saw it. and our policy is to never take things we find"... Suggested they produce a "miracle" and find it to avoid having this experience posted. However  hopes are low... The desk clerk who answered was doing so begrudgingly.. So, posting it here to warn the fellow travelers. Someone needs to be fired for taking customer's belongings..Will post an update if anything happens.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Palmdale, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>My wife stayed at this hotel for her business trip July20-21. While overall the room and building are ok, normal for the stars. There was an alarming  event that cast a shadow on the whole experience.She left her ultrasonic rechargeable toothbrush in the room, should not be a problem, right? Everyone has things left behind to get them returned by friendly hotel staff. NOT in Staybridge Suites Palmdale.She called to report it in about the same day and left her number to call back. Did not hear from them, called again next day. They said they got her number wrong, or so they told us when we called them the next day to check on the item. Two days passed  - not a word. We call again, they tell stories of "not being able to find the cleaning shift supervisor". Called again - still no word from supervisor, and they couldn't find it in "lost and found" bins.Called a week later - still "nobody saw it. and our policy is to never take things we find"... Suggested they produce a "miracle" and find it to avoid having this experience posted. However  hopes are low... The desk clerk who answered was doing so begrudgingly.. So, posting it here to warn the fellow travelers. Someone needs to be fired for taking customer's belongings..Will post an update if anything happens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r504225216-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>504225216</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>One of the Best Hotels around !</t>
+  </si>
+  <si>
+    <t>Nice and large Rooms, friendly service, a small gym, very clean, Pool area also clean.I enjoyed 4 weeks over there and really miss that area. The Staybridge is ine of the hotels, that should be choosen for longer stays. Also for short trips best Hotel around.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r492591268-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>492591268</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>AMAZING STAY</t>
+  </si>
+  <si>
+    <t>So were do I start. My sister and I work at a hotel in San Francisco so I know about the hotel business. When we first arrived we here greeted by a young lady at the front desk with long beautiful hair and a great smile, also by a African American Gentlemen he seemed as if he worked as the Maintenance person but they were both so sweet and kind to my family. My family and I were in town for a funeral so we all had a lot going on, but to be greeted and treated how they treated us made all of our spirits lifted. Then they gave us a Complimentary Upgrade to a 2 bed room suit to make sure we all were confertable. As we made our way to the room we noticed a sign outside our door that said "We are glad to have you here". That was such a great touch. The beds were great the room was big and we had 2 bathrooms and a kitchen stove as well with made things so convenient because we did have 5 children all under 5 years old. They also had a drink machien with all you can drink sode and water and tea they also had a cute little convenient store and it was super cheap.They had a pool, Hot tub, and Movie theater, YES I SAID MOVIE THEATER IN THE HOTEL FOR DONATION. I...So were do I start. My sister and I work at a hotel in San Francisco so I know about the hotel business. When we first arrived we here greeted by a young lady at the front desk with long beautiful hair and a great smile, also by a African American Gentlemen he seemed as if he worked as the Maintenance person but they were both so sweet and kind to my family. My family and I were in town for a funeral so we all had a lot going on, but to be greeted and treated how they treated us made all of our spirits lifted. Then they gave us a Complimentary Upgrade to a 2 bed room suit to make sure we all were confertable. As we made our way to the room we noticed a sign outside our door that said "We are glad to have you here". That was such a great touch. The beds were great the room was big and we had 2 bathrooms and a kitchen stove as well with made things so convenient because we did have 5 children all under 5 years old. They also had a drink machien with all you can drink sode and water and tea they also had a cute little convenient store and it was super cheap.They had a pool, Hot tub, and Movie theater, YES I SAID MOVIE THEATER IN THE HOTEL FOR DONATION. I would definatly stay here again ANY TIME the front was great keep up the great work. Keep the Hospitality alive.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>So were do I start. My sister and I work at a hotel in San Francisco so I know about the hotel business. When we first arrived we here greeted by a young lady at the front desk with long beautiful hair and a great smile, also by a African American Gentlemen he seemed as if he worked as the Maintenance person but they were both so sweet and kind to my family. My family and I were in town for a funeral so we all had a lot going on, but to be greeted and treated how they treated us made all of our spirits lifted. Then they gave us a Complimentary Upgrade to a 2 bed room suit to make sure we all were confertable. As we made our way to the room we noticed a sign outside our door that said "We are glad to have you here". That was such a great touch. The beds were great the room was big and we had 2 bathrooms and a kitchen stove as well with made things so convenient because we did have 5 children all under 5 years old. They also had a drink machien with all you can drink sode and water and tea they also had a cute little convenient store and it was super cheap.They had a pool, Hot tub, and Movie theater, YES I SAID MOVIE THEATER IN THE HOTEL FOR DONATION. I...So were do I start. My sister and I work at a hotel in San Francisco so I know about the hotel business. When we first arrived we here greeted by a young lady at the front desk with long beautiful hair and a great smile, also by a African American Gentlemen he seemed as if he worked as the Maintenance person but they were both so sweet and kind to my family. My family and I were in town for a funeral so we all had a lot going on, but to be greeted and treated how they treated us made all of our spirits lifted. Then they gave us a Complimentary Upgrade to a 2 bed room suit to make sure we all were confertable. As we made our way to the room we noticed a sign outside our door that said "We are glad to have you here". That was such a great touch. The beds were great the room was big and we had 2 bathrooms and a kitchen stove as well with made things so convenient because we did have 5 children all under 5 years old. They also had a drink machien with all you can drink sode and water and tea they also had a cute little convenient store and it was super cheap.They had a pool, Hot tub, and Movie theater, YES I SAID MOVIE THEATER IN THE HOTEL FOR DONATION. I would definatly stay here again ANY TIME the front was great keep up the great work. Keep the Hospitality alive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r467111817-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>467111817</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Nice, but Needs A Few Changes</t>
+  </si>
+  <si>
+    <t>While the overall state was nice, the areas that need improvement are: 1) A quieter A/C unit. It was so loud that I had to turn it off when it was time for sleep. The downside is that I would get too warm during the night, which caused me wake up intermittently. Therefore I did not get a solid nights sleep the three nights I was there.  2)  Offer a larger television. The size of the television, which appeared to be a 32" screen, is fine for a smaller space but not for a hotel suite. Especially when the head of the bed is at least 15 feet away. 3)  Offer a television with better sound quality. In combination with the loud air conditioning unit, it was a total strain to hear many of the channels.  No matter how high the volume was increased, the sound did not change.  4)  Provide better pillow options. All four pillows were extremely soft. So two had to be rolled together to provide a more firm head support.  If too soft and two medium or firm pillows were provided, it would make available choices  for a better nights rest.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>While the overall state was nice, the areas that need improvement are: 1) A quieter A/C unit. It was so loud that I had to turn it off when it was time for sleep. The downside is that I would get too warm during the night, which caused me wake up intermittently. Therefore I did not get a solid nights sleep the three nights I was there.  2)  Offer a larger television. The size of the television, which appeared to be a 32" screen, is fine for a smaller space but not for a hotel suite. Especially when the head of the bed is at least 15 feet away. 3)  Offer a television with better sound quality. In combination with the loud air conditioning unit, it was a total strain to hear many of the channels.  No matter how high the volume was increased, the sound did not change.  4)  Provide better pillow options. All four pillows were extremely soft. So two had to be rolled together to provide a more firm head support.  If too soft and two medium or firm pillows were provided, it would make available choices  for a better nights rest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r459788308-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>459788308</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Very pleased with this hotel.</t>
+  </si>
+  <si>
+    <t>We like to stay here. The staff is very friendly and will try to accommodate you as best they can. The bed is firm and they provide several pillows of various thickness to make your rest the best. Heated pool and spa, Basketball court, BBQ grill, kitchenettes in rooms, free soda and coffee all day. Great place to stay. Very quiet.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r457728336-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>457728336</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Great extended stay hotel, with a few minor drawbacks</t>
+  </si>
+  <si>
+    <t>I've been staying at the hotel for a few months now (extended business stay) and so far I've been pretty happy with my time here. The rooms are well appointed, clean, and spacious. The staff is professional, kind, and very accommodating. And the free breakfast and dinner (dinner Mon.-Thurs.) are good benefits that make a long stay more bearable (and the free coffee is great for someone who is always in the mood for a cup).Wi-Fi is free, but it's consistency is pretty terrible. It's decent when it does work, but it drops out quite frequently and can make something like Netflix or online gaming very difficult. This is probably my biggest frustration with the hotel, but on the whole it doesn't do much to detract from my experience.Recommended for long business or family trips if you're going to be in Palmdale for a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been staying at the hotel for a few months now (extended business stay) and so far I've been pretty happy with my time here. The rooms are well appointed, clean, and spacious. The staff is professional, kind, and very accommodating. And the free breakfast and dinner (dinner Mon.-Thurs.) are good benefits that make a long stay more bearable (and the free coffee is great for someone who is always in the mood for a cup).Wi-Fi is free, but it's consistency is pretty terrible. It's decent when it does work, but it drops out quite frequently and can make something like Netflix or online gaming very difficult. This is probably my biggest frustration with the hotel, but on the whole it doesn't do much to detract from my experience.Recommended for long business or family trips if you're going to be in Palmdale for a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r440224981-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>440224981</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>First time in Los Angeles, felt right at home.</t>
+  </si>
+  <si>
+    <t>My Wife and I stayed at this Staybridge during our first time visiting LA. From the time that we arrived all the way up to the time of our departure the staff have been nothing but exceptional in guest service. Eddie was very good with providing us tremendous guest service and he was very knowledgeable of the surrounding areas including LA...The Staff was very accommodating, warm, and friendly. The General Manager was approachable and nice and pleasant to talk to...We had so much of a good time, we didn't want to leave.The property was clean and classy, the rooms were spacious and clean, Te Socials were fun, the food was great and This was one of the best hotel experience I've had in all of my years of traveling and staying at hotels. We loved it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>My Wife and I stayed at this Staybridge during our first time visiting LA. From the time that we arrived all the way up to the time of our departure the staff have been nothing but exceptional in guest service. Eddie was very good with providing us tremendous guest service and he was very knowledgeable of the surrounding areas including LA...The Staff was very accommodating, warm, and friendly. The General Manager was approachable and nice and pleasant to talk to...We had so much of a good time, we didn't want to leave.The property was clean and classy, the rooms were spacious and clean, Te Socials were fun, the food was great and This was one of the best hotel experience I've had in all of my years of traveling and staying at hotels. We loved it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r436796698-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>436796698</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly nice!</t>
+  </si>
+  <si>
+    <t>I'd never stayed in a Staybridge before - being a staunch Hilton guy - but when everywhere I could accrue HH points was sold out, I ended up here, and I was pleasantly surprised.  The rooms were nice, they offered a free dinner and breakfast, and it was overall a very clean, comfortable place.  The Embassy will always be my first choice - for the loyalty points as much as for the happy hour - but this is a good backup.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r431669217-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>431669217</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>First Time, I'd come Again!</t>
+  </si>
+  <si>
+    <t>Business stay.  Easy access to main Hwy. Situated close to Palmdale Regional Hosp.  Shopping centers and restaurants or fast food just couple miles away.  Exterior well kept.  Interior warm and inviting.  Front desk crew day and night shifts always pleasant and helpful. Room interior basic hotel decor, bedroom, bath with living room and kitchen. Very Clean!!!! Kitchen fully equipped for extended stay visit. Bed was comfortable, linen soft and pillows plush! I do have a suggestion to hotel to replace those towels!! Although clean.....they are rough!!! They did offer breakfast and dinner on certain nights but I didn't try any this visit. I really have to compliment the housekeeping for this visit.  The room was perfect on admission and what also impressed me was somehow they managed to get in and tidy up every day after I left for work.  I work both day and night shifts and don't keep regular schedule so often I can be passed by with housekeeping. Great stay, I'll be a return customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Business stay.  Easy access to main Hwy. Situated close to Palmdale Regional Hosp.  Shopping centers and restaurants or fast food just couple miles away.  Exterior well kept.  Interior warm and inviting.  Front desk crew day and night shifts always pleasant and helpful. Room interior basic hotel decor, bedroom, bath with living room and kitchen. Very Clean!!!! Kitchen fully equipped for extended stay visit. Bed was comfortable, linen soft and pillows plush! I do have a suggestion to hotel to replace those towels!! Although clean.....they are rough!!! They did offer breakfast and dinner on certain nights but I didn't try any this visit. I really have to compliment the housekeeping for this visit.  The room was perfect on admission and what also impressed me was somehow they managed to get in and tidy up every day after I left for work.  I work both day and night shifts and don't keep regular schedule so often I can be passed by with housekeeping. Great stay, I'll be a return customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r422621000-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>422621000</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I'm a fan of the Staybridge Suites brand usually and this property was another good choice. It was easy to find and seemed quite new. Check-in was easy and status was recognised however I wasn't given an upgraded room (no biggy, I was travelling alone and for one night) had a problem with my key card and reception staff were very good at sorting out and even sent someone up with me to check that the new key worked (a nice touch) Overall, not a bad stay. Nothing spectacular but a comfy bed, clean, large room and a good night sleep.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r416855083-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>416855083</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Why Go Anywhere Else....</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was beyond extraordinary... it was the best stay I've experienced at any hotel.  My room was fresh and clean.  The breakfast team made my morning's worth waking up to. The front desk staff went out of their way to make me feel special. EVERYONE at this hotel greeted me. I asked for the Manager and Debbie greeted me with a warm and friendly smile... With managers like Debbie... Its evident why this hotel rocks!  I needed to get to Walmart and the shuttle took me there and back.  This has become my new home away from home when I visit the area on business.  The staff treats me like family.  Why go anywhere else!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was beyond extraordinary... it was the best stay I've experienced at any hotel.  My room was fresh and clean.  The breakfast team made my morning's worth waking up to. The front desk staff went out of their way to make me feel special. EVERYONE at this hotel greeted me. I asked for the Manager and Debbie greeted me with a warm and friendly smile... With managers like Debbie... Its evident why this hotel rocks!  I needed to get to Walmart and the shuttle took me there and back.  This has become my new home away from home when I visit the area on business.  The staff treats me like family.  Why go anywhere else!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r386795042-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>386795042</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>As good or better than actually being home</t>
+  </si>
+  <si>
+    <t>I've lived in different hotels over the past year and a half traveling for work and this is by far the best hotel I've stayed at. The food, people and all-around atmosphere is just phenominal. Leah, Eddie, Edward, Laura, Alyssa and everyone there were just fantastic, always making sure I had everything I could ever ask for from a hotel staff and more. They went well out of their way to help me when I needed to extend my stay and they were sold out due to me waiting until the last minute to extend. Somehow they magically found me a room and I didn't have to move. The whole hotel is very clean, new, and the food is always great, much better than other Staybridge Suites that I have stayed at. If you get the chance to stay here, I highly suggest you do so.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I've lived in different hotels over the past year and a half traveling for work and this is by far the best hotel I've stayed at. The food, people and all-around atmosphere is just phenominal. Leah, Eddie, Edward, Laura, Alyssa and everyone there were just fantastic, always making sure I had everything I could ever ask for from a hotel staff and more. They went well out of their way to help me when I needed to extend my stay and they were sold out due to me waiting until the last minute to extend. Somehow they magically found me a room and I didn't have to move. The whole hotel is very clean, new, and the food is always great, much better than other Staybridge Suites that I have stayed at. If you get the chance to stay here, I highly suggest you do so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r379815341-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>379815341</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Staybridge is always good enough!</t>
+  </si>
+  <si>
+    <t>Every Staybridge Hotels, which I've visited, is clean and comfortable. They didn't let me down. I spent couple of nights here. This hotel was also very clean and comfortable. The room size was big enough. Pillows and beds were comfortable. The Pillows are very important to me.  I enjoyed their fresh yummy breakfast. I liked their fresh fruits. Swimming pool and Jacuzzi area were quite and clean. The swimming pool was our one of the favorite one. It was a salt water swimming pool. I didn't taste any chemical from the pool than any other swimming pools and the staffs were nice.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r371285588-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>371285588</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>It will be difficult to explain how wonderful our 44 day stay was here!   Most importantly we did not have one negative experience with any of the employees!   They are ALL absolutely wonderful!   Each and everyone will work to make your stay as pleasurable as possible.   The rooms compared to others are spacious and nice.   We were displaced after selling our home earlier than we wanted and they took in 2 adults, 2 teenagers and 3 dogs!  Yes and they still somehow made staying in a hotel a positive experience.   The free breakfast every morning are really good!  Free dinner and happy hour every Monday through Thursday!   It is true and there is not a catch!    Seriously, in 44 days there is not 1 thing I can say I would change!  Thank you Staybridge we will miss each and everyone of you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>It will be difficult to explain how wonderful our 44 day stay was here!   Most importantly we did not have one negative experience with any of the employees!   They are ALL absolutely wonderful!   Each and everyone will work to make your stay as pleasurable as possible.   The rooms compared to others are spacious and nice.   We were displaced after selling our home earlier than we wanted and they took in 2 adults, 2 teenagers and 3 dogs!  Yes and they still somehow made staying in a hotel a positive experience.   The free breakfast every morning are really good!  Free dinner and happy hour every Monday through Thursday!   It is true and there is not a catch!    Seriously, in 44 days there is not 1 thing I can say I would change!  Thank you Staybridge we will miss each and everyone of you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r369301269-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>369301269</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>My room was very spacious and clean. The kitchen was especially nice for preparing meals although with the free dinners Monday-Thursday, this wasn't neccessary. The property is well kept and the pool area was a very nice place to relax after work, It was also very close to restaurants and shopping areas. While I didn't take advantage of it, the hotel offers a free shuttle to local shopping.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r363778537-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>363778537</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>First class facilities</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites is a hotel with great facilities. From the moment I made my booking till the end of our stay we received great service from all members of the staff team. It was pleasant to be greeted by friendly and cheerful staff at the reception . Made us feel really welcome. Isella at reception handled my reservation and was very helpful in getting me a good rate. The room facilities are good and we slept well in the comfy bed. It was lovely to have proper crockery and glasses. What sets this apart from other chain hotels is the buffet breakfast. It is the best that we have encountered . There were different hot items everyday, ranging from corn beef hash to breakfast burritos. Again there were proper China plates/bowls and metal cutlery, unlike other inns/ hotels where disposable plates and plastic cutlery are the norm. There is even complimentary dinner during weekdays. The free laundry and free shuttle to the surrounding shopping areas are also a bonus. All in all a first rate hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Staybridge Suites is a hotel with great facilities. From the moment I made my booking till the end of our stay we received great service from all members of the staff team. It was pleasant to be greeted by friendly and cheerful staff at the reception . Made us feel really welcome. Isella at reception handled my reservation and was very helpful in getting me a good rate. The room facilities are good and we slept well in the comfy bed. It was lovely to have proper crockery and glasses. What sets this apart from other chain hotels is the buffet breakfast. It is the best that we have encountered . There were different hot items everyday, ranging from corn beef hash to breakfast burritos. Again there were proper China plates/bowls and metal cutlery, unlike other inns/ hotels where disposable plates and plastic cutlery are the norm. There is even complimentary dinner during weekdays. The free laundry and free shuttle to the surrounding shopping areas are also a bonus. All in all a first rate hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r363076344-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>363076344</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Truly awesome place to stay...</t>
+  </si>
+  <si>
+    <t>Just like the other reviews mentioned, this is truly a place to stay and enjoy! Decent price, Welcome smiles at check-in, nice, clean spacious rooms, free DVDs for families, nice beds, hearty breakfast in the morning - there is not much you can ask for! Nice touch in terms of front desk staff asking to confirm all is good in the room about an hour after check-in and also offering detailed recommendations for great restaurants nearby! I just wish most hotel staff got trained here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r362615934-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>362615934</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Wonderful Staff</t>
+  </si>
+  <si>
+    <t>My husband travels frequently to Palmdale for business and he prefers to stay at the Staybridge.  I come with him when my schedule permits and I am always satisfied with the hotel and impressed with the staff.  This week Leah was extra kind/helpful with providing us with an early check-in (Thank you!) and Eddy was helpful with the check-out.  Edward, Chris, Isella, and Pia were also friendly and helpful.  Whenever I asked for something to be fixed/addressed it was right away. The rooms are comfortable and pleasant.  I appreciate the kitchen with the full sized refrigerator, microwave, stovetop, and dishwasher - it helps to make it more like a nice place to live than just a hotel room.  The included breakfast is very good with fresh fruit, hot oatmeal, and hot dishes as well as cold cereals, breads, and yogurt.  Monday - Thursday there is also a evening reception/dinner that is available to guest which is nice after a long day.The location is great, it is convenient to the freeway and less than a mile from food stores (Trader Joes and Smart &amp; Final) and number of other stories.  Thanks again for a wonderful stay.  We will be back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband travels frequently to Palmdale for business and he prefers to stay at the Staybridge.  I come with him when my schedule permits and I am always satisfied with the hotel and impressed with the staff.  This week Leah was extra kind/helpful with providing us with an early check-in (Thank you!) and Eddy was helpful with the check-out.  Edward, Chris, Isella, and Pia were also friendly and helpful.  Whenever I asked for something to be fixed/addressed it was right away. The rooms are comfortable and pleasant.  I appreciate the kitchen with the full sized refrigerator, microwave, stovetop, and dishwasher - it helps to make it more like a nice place to live than just a hotel room.  The included breakfast is very good with fresh fruit, hot oatmeal, and hot dishes as well as cold cereals, breads, and yogurt.  Monday - Thursday there is also a evening reception/dinner that is available to guest which is nice after a long day.The location is great, it is convenient to the freeway and less than a mile from food stores (Trader Joes and Smart &amp; Final) and number of other stories.  Thanks again for a wonderful stay.  We will be back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r359183775-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>359183775</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>My family and I were displaced from our home for almost three weeks due to water damage.  The insurance company set us up in Staybridge Suites and thank goodness they did!  This was a great place to have to spend a few weeks.  The staff was amazing!  Everyone in the front desk: Leah, Edward and Chris.  I may have forgotten someone, but the entire front desk was friendly, pleasant and helpful.  Adriana helped serve breakfast and dinner (both were free)!  She was delightful!  Berta, Esther, Marsha and Susana were in housekeeping and they were phenomenal! From the free breakfast every morning to the free dinner 4 nights a week, this place can't be beat!  If you are in town for a day, week, month or year, this is the place for you! Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>My family and I were displaced from our home for almost three weeks due to water damage.  The insurance company set us up in Staybridge Suites and thank goodness they did!  This was a great place to have to spend a few weeks.  The staff was amazing!  Everyone in the front desk: Leah, Edward and Chris.  I may have forgotten someone, but the entire front desk was friendly, pleasant and helpful.  Adriana helped serve breakfast and dinner (both were free)!  She was delightful!  Berta, Esther, Marsha and Susana were in housekeeping and they were phenomenal! From the free breakfast every morning to the free dinner 4 nights a week, this place can't be beat!  If you are in town for a day, week, month or year, this is the place for you! Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r353982413-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>353982413</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Great place for working folks out on the road</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. Quiet, breakfast &amp; dinners, self service laundry included in price of room. Leah, Chris, Eddie &amp; Edward were all very helpful during my stay. The (2) ladies who made breakfast every morning are wonderful (tipped them every day I could wake up in time).  Additional movies available free at front desk. Chris went out of his way &amp; got the Wall St Journal for me. Will stay here every time I'm in Palmdale on business.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r352757797-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>352757797</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>Leah and kris made the stay completely amazing!! The free drinks and dinner Monday thru Thursday are great, but walking in to Leah's smile and welcome made our stay above board!!! I had a problem with my room and they accommodated a hasty repair and a follow up to my enjoyment was made throughout my stay. I'd extend my approve to Anyone who asked!! Thanks to the beautiful personalities and especially Leah who made my stay above expectations !!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r352422848-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>352422848</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Great as always</t>
+  </si>
+  <si>
+    <t>This place is awesome, from the maintenance staff to front desk and administration, you can't beat this place for friendly people.The food is good, the pool and court grounds are amazing and the rooms are big clean and never any problems</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r352008967-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>352008967</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>We were relocated to Staybridge due to home damage. From day one we have felt very comfortable and welcomed. We love that we are able to have our dog with us. The hotel associates have been very friendly and helpful. Chris &amp; Kevin in Maintenance and Leah &amp; Edward at the Front Desk have gone above &amp; beyond during our stay, keeping an eye on our son while he plays basketball which we feel very appreciative for. And if we have ever had a question, an issue or concern, they never hesitated to assist us. Just their pleasant smiles when we walk in makes our stay feel like home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We were relocated to Staybridge due to home damage. From day one we have felt very comfortable and welcomed. We love that we are able to have our dog with us. The hotel associates have been very friendly and helpful. Chris &amp; Kevin in Maintenance and Leah &amp; Edward at the Front Desk have gone above &amp; beyond during our stay, keeping an eye on our son while he plays basketball which we feel very appreciative for. And if we have ever had a question, an issue or concern, they never hesitated to assist us. Just their pleasant smiles when we walk in makes our stay feel like home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r350962197-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>350962197</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction superintendent </t>
+  </si>
+  <si>
+    <t>I stayed at the staybridge hotel in Palmdale from February 2015 to mid February 2016. The entire staff was great rooms were clean food was good Leah Michelle Chris and Eddie at the front desk were always there to check me in and always very friendly the breakfast ladies Adriana and Giselle we're always very nice and pleasant to talk to in the morning, they cooked great . The hotel maintenance crew Kris Kevin and Martine keep the hotel in tip top condition and were always there to give us rides in the hotel shuttle. Staying at the staybridge sweets in Palmdale made my time out of town tolerable I would recommend staying there too anyone and everyone I know thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the staybridge hotel in Palmdale from February 2015 to mid February 2016. The entire staff was great rooms were clean food was good Leah Michelle Chris and Eddie at the front desk were always there to check me in and always very friendly the breakfast ladies Adriana and Giselle we're always very nice and pleasant to talk to in the morning, they cooked great . The hotel maintenance crew Kris Kevin and Martine keep the hotel in tip top condition and were always there to give us rides in the hotel shuttle. Staying at the staybridge sweets in Palmdale made my time out of town tolerable I would recommend staying there too anyone and everyone I know thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349558801-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>349558801</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, less than an average hotel, breakfast area is chaos</t>
+  </si>
+  <si>
+    <t>Very small breakfast area. Room is dark. Not well ventilated. The room design is inefficient and not practical. Carpet might need to be replaced. I don't recommend it and It was not worth the money spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Staybridge Suites Palmdale, responded to this reviewResponded March 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2016</t>
+  </si>
+  <si>
+    <t>Very small breakfast area. Room is dark. Not well ventilated. The room design is inefficient and not practical. Carpet might need to be replaced. I don't recommend it and It was not worth the money spent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349552035-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>349552035</t>
+  </si>
+  <si>
+    <t>Awesome hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I decided to come to Cali for the weekend, and staying at this location was simply a pleasure.  The rooms were clean and modern, the ambience of the hotel was so inviting, and the staff, especially the manger Debbie, was so friendly and helpful.  She personally made sure that we had everything that we needed to be comfortable.  We loved starting out our day with the hot complimentary breakfast, and having the shuttle pick us up was super convenient.  Definitely coming back here on our next getaway!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349546885-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>349546885</t>
+  </si>
+  <si>
+    <t>Fabulous!!!</t>
+  </si>
+  <si>
+    <t>I had to stay in Cali for a week due to my brother's graduation and it was a very restful experience. I have never been in a heated pool before and the theater was a nice touch. The staff was super helpful and patient. I never felt rushed by the staff nor treated unfairly. My stay here was definitely worth it. I would recommend this too friends and colleagues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349528327-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>349528327</t>
+  </si>
+  <si>
+    <t>The Perfect Road Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My boyfriend and I stopped in Palmdale on our way back to Los Angeles from a roadtrip. We had never stayed at a Staybridge before but we definitely will again!! Staff was great.. So friendly!! Loved the breakfast and the little store saved us from having to go out to get snacks! Will definitely stay at more Staybridges when we travel thanks to the great experience at this one. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349348692-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>349348692</t>
+  </si>
+  <si>
+    <t>Loved the Hotel!</t>
+  </si>
+  <si>
+    <t>The rooms were clean, spacious and beautiful.  The staff here were excellent!  Everyone I cam in contact with was smiling, cheerful and friendly.  We enjoyed the delicious free buffet breakfast.  Our kids loved the heated pool too. We will definitely be returning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349160560-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>349160560</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>My favorite hotel in Palmdale/Lancaster area</t>
+  </si>
+  <si>
+    <t>After several years of travel between San Francisco and Palmdale, this is now my "go to" hotel. I like the room, the kitchenette with full fridge (to keep my drinks cold), the free breakfast, and the friendly staff at the desk and in the dining room. Yesterday, the general manager Debbie helped me get a revised bill for my December stay last year - my company travel auditors found an error - and was very nice about it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r334687762-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>334687762</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Amazing in every way!!!!</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at the staybridge! From the excellent customer service of the front desk to the maintenance. Anyone I came across was friendly and beyond helpful to any of my needs. The room was clean and met all of my expectations. Each morning breakfast was different. The movie theater was an awesome plus and traveling with her baby it was very nice to be able to do FREE laundry. Anytime I'm in the area I WILL be staying here!!! Thank you for a wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Debbie M, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at the staybridge! From the excellent customer service of the front desk to the maintenance. Anyone I came across was friendly and beyond helpful to any of my needs. The room was clean and met all of my expectations. Each morning breakfast was different. The movie theater was an awesome plus and traveling with her baby it was very nice to be able to do FREE laundry. Anytime I'm in the area I WILL be staying here!!! Thank you for a wonderful stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r323640227-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>323640227</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Asome</t>
+  </si>
+  <si>
+    <t>The the staff is one of a kind after a deth my family had a forn now we got kiked out of my home and my famliy stade at the staybridge suites and we had a samile. Hot free barkefast every day  on some days dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>The the staff is one of a kind after a deth my family had a forn now we got kiked out of my home and my famliy stade at the staybridge suites and we had a samile. Hot free barkefast every day  on some days dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r322438430-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>322438430</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>About a month ago my wife and I spent a week at the Staybridge Suites.We had never strayed at an extended stay hotel before and were pleasantly surprised.  The staff was very attentive, Michelle and Leah at the front desk are the only names I remember, but they were all great.  Engineering, housekeeping,  food servers were all excellent.  Everyone made sure you felt at home.  I am in a wheelchair and they had the best accessible room I have ever stayed in.  We highly recommend the Staybridge suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>About a month ago my wife and I spent a week at the Staybridge Suites.We had never strayed at an extended stay hotel before and were pleasantly surprised.  The staff was very attentive, Michelle and Leah at the front desk are the only names I remember, but they were all great.  Engineering, housekeeping,  food servers were all excellent.  Everyone made sure you felt at home.  I am in a wheelchair and they had the best accessible room I have ever stayed in.  We highly recommend the Staybridge suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r315676963-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>315676963</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>A PLACE THAT FEEL LIKE A FAMILY THAT ALL CARE ABOUT YOU</t>
+  </si>
+  <si>
+    <t>One thing about come to this hotel have bless me to see people around the world and to get to meet some of the best helpful polite staff in a hotel i love everone of them are just like famly Kevin, Carlos, kris, Martin, Orlando, Berta, Maria, Olga, Susana, Marsha, Esther, Leticia, Michelle C. Eddie H. Eddie M, Leah,  Edward, Chris,  Jisela, Adriana, Irma, YOU GUYS ROCKMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>One thing about come to this hotel have bless me to see people around the world and to get to meet some of the best helpful polite staff in a hotel i love everone of them are just like famly Kevin, Carlos, kris, Martin, Orlando, Berta, Maria, Olga, Susana, Marsha, Esther, Leticia, Michelle C. Eddie H. Eddie M, Leah,  Edward, Chris,  Jisela, Adriana, Irma, YOU GUYS ROCKMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r314849593-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>314849593</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>GREAT STAFF - KUDOS</t>
+  </si>
+  <si>
+    <t>Would like to emphasize what a great - helpful - polite staff the Staybridge currently employees - Laticia cleaned my room outside her schedule ***KUDOS Jisela Giron (Kitchen) friendly smile and so accommodating to everyone.  I would just like to say this has made my stay wonderful!!!! THANK YOU ALL!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Would like to emphasize what a great - helpful - polite staff the Staybridge currently employees - Laticia cleaned my room outside her schedule ***KUDOS Jisela Giron (Kitchen) friendly smile and so accommodating to everyone.  I would just like to say this has made my stay wonderful!!!! THANK YOU ALL!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r314062479-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>314062479</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel but!!!</t>
+  </si>
+  <si>
+    <t>I stayed here 3 years ago it's a nice hotel polite staff and lovely breakfast. The only thing I didn't like about it was it allows pets to stay in the rooms the first room they gave me smelt of pet Oder and the carpet was stained I told them I cannot say in this room due to the smell of it so they moved me to another room a 1 bedroom suite on the ground floor. Other than that a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Palmdale, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here 3 years ago it's a nice hotel polite staff and lovely breakfast. The only thing I didn't like about it was it allows pets to stay in the rooms the first room they gave me smelt of pet Oder and the carpet was stained I told them I cannot say in this room due to the smell of it so they moved me to another room a 1 bedroom suite on the ground floor. Other than that a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r306517818-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>306517818</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Best experience at a hotel for business ever</t>
+  </si>
+  <si>
+    <t>First off, a BIG THANK YOU to this entire staff, starting with Michelle Murillo who was our contact for coordinating the rooms and rates months in advance. Throughout our entire hotel search in the area as well as other areas in Southern California, Michelle was by far the most professional and genuine of all the sales managers we interacted with. When we arrived, we were greeted by Cassandra who took care of all our needs getting into the rooms. I had the pleasure of meeting Debra the GM along with everyone else at the front desk. It was a refreshing experience to say the least. The rooms and beds were amazing. This will be a destination we will always look to stay when filming in the area. On behalf of the cast and crew for A Young Man's Future, we thank you for your kindness, professionalism and care.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Debbie M, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>First off, a BIG THANK YOU to this entire staff, starting with Michelle Murillo who was our contact for coordinating the rooms and rates months in advance. Throughout our entire hotel search in the area as well as other areas in Southern California, Michelle was by far the most professional and genuine of all the sales managers we interacted with. When we arrived, we were greeted by Cassandra who took care of all our needs getting into the rooms. I had the pleasure of meeting Debra the GM along with everyone else at the front desk. It was a refreshing experience to say the least. The rooms and beds were amazing. This will be a destination we will always look to stay when filming in the area. On behalf of the cast and crew for A Young Man's Future, we thank you for your kindness, professionalism and care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r299477694-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>299477694</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>my opinion</t>
+  </si>
+  <si>
+    <t>The rooms give you a since of being at your own home feeling!   Very comfortable! You have many different options of room styles......from suites to separate bedroom privacy..........So if you travel alone or with your family.....They meet all of your needs! And the offer a delicious FREE breakfast AND Dinner!.........Amazing!................I found me a new home away from home that's for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>Debbie M, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded August 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2015</t>
+  </si>
+  <si>
+    <t>The rooms give you a since of being at your own home feeling!   Very comfortable! You have many different options of room styles......from suites to separate bedroom privacy..........So if you travel alone or with your family.....They meet all of your needs! And the offer a delicious FREE breakfast AND Dinner!.........Amazing!................I found me a new home away from home that's for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r298893043-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>298893043</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Immaculate 5 Star Suites</t>
+  </si>
+  <si>
+    <t>On Yelp reviewing and calling hotel after hotel finally called Staybridge Suites and spoke with Michelle,  absolute delight!  My husband and I came out for business and both agreed on making this our hotel.  Very clean,  great breakfast buffet free (none of the other hotel have this or you pay $10 more),  and 5:30-7:30pm free beer and wine with great food,  different every evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>On Yelp reviewing and calling hotel after hotel finally called Staybridge Suites and spoke with Michelle,  absolute delight!  My husband and I came out for business and both agreed on making this our hotel.  Very clean,  great breakfast buffet free (none of the other hotel have this or you pay $10 more),  and 5:30-7:30pm free beer and wine with great food,  different every evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r282909888-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>282909888</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We have stayed here many times, and have always enjoyed our stay. This time was different. The room was not spotless as we have come to expect. For example, there was dried mucus on the ceiling, dried blood on the bathroom door, a dirty cup in the cabinet, and the carpet is stained beyond description. Sadly, we were stuck there for 4 days. Housekeeping was poor. The front desk was usually vacant unless Terrence was on duty. Everyone else would be in the back room, on their phones I guess, and would come out only when beckoned. Very unprofessional. At   11:00 Saturday morning, I went to use the pool, and it was closed. Really? That's the only thing going for them and it was closed for treatment on a Saturday morning? Terrence was the only employee who seemed to care, but he needs some help in a hurry!MoreShow less</t>
+  </si>
+  <si>
+    <t>Debbie M, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed here many times, and have always enjoyed our stay. This time was different. The room was not spotless as we have come to expect. For example, there was dried mucus on the ceiling, dried blood on the bathroom door, a dirty cup in the cabinet, and the carpet is stained beyond description. Sadly, we were stuck there for 4 days. Housekeeping was poor. The front desk was usually vacant unless Terrence was on duty. Everyone else would be in the back room, on their phones I guess, and would come out only when beckoned. Very unprofessional. At   11:00 Saturday morning, I went to use the pool, and it was closed. Really? That's the only thing going for them and it was closed for treatment on a Saturday morning? Terrence was the only employee who seemed to care, but he needs some help in a hurry!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r281429582-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>281429582</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>TOP NOTCH HOTEL!!!</t>
+  </si>
+  <si>
+    <t>My husband was staying at Staybridge for over 2 months on business and he raved about this hotel. Myself and my 4 children came down to visit for a week, and we were absolutely blown away by the hospitality we were shown!The General Manager was so professional, yet personable and the entire staff was EXCELLENT! The rooms were super clean and spacious, the grounds were flawless, the food was delicious. This hotel FAR exceeded our expectations! You could tell that the staff loved their jobs,and went above and beyond to make everyone's stay comfortable and treated their guests like family.We have not 1 single complaint about this hotel or our stay here. We have stayed at many other "higher end" hotels, and this Staybridge Suites has them all beat by far. Thank you to everyone from the General Manager to the front desk staff, to the housekeeping and maintenance staff, to the shuttle driver to the food service staff for making our stay here PERFECT! This truly felt like a home away from home, but better. Lol. The next time we visit Palmdale, we will DEFINITELY be staying at Staybridge Suites Palmdale.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband was staying at Staybridge for over 2 months on business and he raved about this hotel. Myself and my 4 children came down to visit for a week, and we were absolutely blown away by the hospitality we were shown!The General Manager was so professional, yet personable and the entire staff was EXCELLENT! The rooms were super clean and spacious, the grounds were flawless, the food was delicious. This hotel FAR exceeded our expectations! You could tell that the staff loved their jobs,and went above and beyond to make everyone's stay comfortable and treated their guests like family.We have not 1 single complaint about this hotel or our stay here. We have stayed at many other "higher end" hotels, and this Staybridge Suites has them all beat by far. Thank you to everyone from the General Manager to the front desk staff, to the housekeeping and maintenance staff, to the shuttle driver to the food service staff for making our stay here PERFECT! This truly felt like a home away from home, but better. Lol. The next time we visit Palmdale, we will DEFINITELY be staying at Staybridge Suites Palmdale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r272887449-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>272887449</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>The staff is just awesome!</t>
+  </si>
+  <si>
+    <t>What makes this place really special is the staff. From maintanace over kitchen, housekeeping to front desk, they are just the best. ncluded dinner creates a nice atmosphere. Stayed here forever and would come back any time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>What makes this place really special is the staff. From maintanace over kitchen, housekeeping to front desk, they are just the best. ncluded dinner creates a nice atmosphere. Stayed here forever and would come back any time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r247940280-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>247940280</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Great place, Great price! Very Friendly!</t>
+  </si>
+  <si>
+    <t>We came upon the Staybridge Suites while trying to find an affordable place to stay for the Rosebowl. It exceeded our expectations -- free breakfast, free dinner, very clean, very friendly staff at a great rate!! Would definitely stay again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded January 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2015</t>
+  </si>
+  <si>
+    <t>We came upon the Staybridge Suites while trying to find an affordable place to stay for the Rosebowl. It exceeded our expectations -- free breakfast, free dinner, very clean, very friendly staff at a great rate!! Would definitely stay again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r242031088-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>242031088</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Oasis in the Desert Where I Least Expected</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights during Thanksgiving week at the Staybridge while visiting family in the area. We got a one bedroom suite with a pull out sofa. First of all the staff was amazing, every single person we saw in the halls or on the property working at Staybridge greeted us in a genuinely friendly manner.  The hotel itself had a nice layout with the great room in the center where breakfast was served daily. Buffet was good for this type of breakfast, each day something on the hot bar changed out: scrambled eggs, breakfast burritos, Eggs and cheese, Biscuits and Gravy with either Ham, Bacon or Sausage.  There were plenty of selections of cold items too - yogurt, fruit - fresh fruit that tasted great, granola, breads, cold cereal. The waffle maker was a huge hit with our daughter. We would go early and the oatmeal was a little thinner than I prefer, but hey, it had some great toppings. We did NOT eat any of the dinners offered as we were either out with family or it was not offered that night. Its a nice option for a traveling family and the area of the buffet we always found clean. Our room was on the top floor and we heard nothing from neighbors or outside. The king bed was comfortable.  The fold out sofa mattress was fine, not too thin and my daughter loved her "room". The...We stayed for 4 nights during Thanksgiving week at the Staybridge while visiting family in the area. We got a one bedroom suite with a pull out sofa. First of all the staff was amazing, every single person we saw in the halls or on the property working at Staybridge greeted us in a genuinely friendly manner.  The hotel itself had a nice layout with the great room in the center where breakfast was served daily. Buffet was good for this type of breakfast, each day something on the hot bar changed out: scrambled eggs, breakfast burritos, Eggs and cheese, Biscuits and Gravy with either Ham, Bacon or Sausage.  There were plenty of selections of cold items too - yogurt, fruit - fresh fruit that tasted great, granola, breads, cold cereal. The waffle maker was a huge hit with our daughter. We would go early and the oatmeal was a little thinner than I prefer, but hey, it had some great toppings. We did NOT eat any of the dinners offered as we were either out with family or it was not offered that night. Its a nice option for a traveling family and the area of the buffet we always found clean. Our room was on the top floor and we heard nothing from neighbors or outside. The king bed was comfortable.  The fold out sofa mattress was fine, not too thin and my daughter loved her "room". The bathroom had nice water pressure in the shower and the spa like towels were soft not scratchy.  Parking was free and the hotel is conveniently located down the street from the Mall if you want to go shopping or go to a restaurant - lots around the mall.  The outdoor area and grounds were clean.  The workout room had 2 treadmills never in use while we were there, though i used one and it was plenty spacious.  A nice touch was the theater room, bring your own movies and popcorn and snacks to the projector and 13 theater chairs. Next time for sure. I was expecting the Staybridge to be adequate as a business class hotel, but our family was pleasantly surprised it was above average for this category. We had plenty of room , more than enough.  The closed and laundry basket were nice as was FREE use of Washer Dryers on the property, though bring your own detergent.  If I had to complaint its minor: when the heat kicked on, it was loud, not loud enough to wake me up, but I had to adjust the TV volume.  Free Wifi and paper nice touch too and glad we could watch our HBO shows. Thanks Staybridge for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded December 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed for 4 nights during Thanksgiving week at the Staybridge while visiting family in the area. We got a one bedroom suite with a pull out sofa. First of all the staff was amazing, every single person we saw in the halls or on the property working at Staybridge greeted us in a genuinely friendly manner.  The hotel itself had a nice layout with the great room in the center where breakfast was served daily. Buffet was good for this type of breakfast, each day something on the hot bar changed out: scrambled eggs, breakfast burritos, Eggs and cheese, Biscuits and Gravy with either Ham, Bacon or Sausage.  There were plenty of selections of cold items too - yogurt, fruit - fresh fruit that tasted great, granola, breads, cold cereal. The waffle maker was a huge hit with our daughter. We would go early and the oatmeal was a little thinner than I prefer, but hey, it had some great toppings. We did NOT eat any of the dinners offered as we were either out with family or it was not offered that night. Its a nice option for a traveling family and the area of the buffet we always found clean. Our room was on the top floor and we heard nothing from neighbors or outside. The king bed was comfortable.  The fold out sofa mattress was fine, not too thin and my daughter loved her "room". The...We stayed for 4 nights during Thanksgiving week at the Staybridge while visiting family in the area. We got a one bedroom suite with a pull out sofa. First of all the staff was amazing, every single person we saw in the halls or on the property working at Staybridge greeted us in a genuinely friendly manner.  The hotel itself had a nice layout with the great room in the center where breakfast was served daily. Buffet was good for this type of breakfast, each day something on the hot bar changed out: scrambled eggs, breakfast burritos, Eggs and cheese, Biscuits and Gravy with either Ham, Bacon or Sausage.  There were plenty of selections of cold items too - yogurt, fruit - fresh fruit that tasted great, granola, breads, cold cereal. The waffle maker was a huge hit with our daughter. We would go early and the oatmeal was a little thinner than I prefer, but hey, it had some great toppings. We did NOT eat any of the dinners offered as we were either out with family or it was not offered that night. Its a nice option for a traveling family and the area of the buffet we always found clean. Our room was on the top floor and we heard nothing from neighbors or outside. The king bed was comfortable.  The fold out sofa mattress was fine, not too thin and my daughter loved her "room". The bathroom had nice water pressure in the shower and the spa like towels were soft not scratchy.  Parking was free and the hotel is conveniently located down the street from the Mall if you want to go shopping or go to a restaurant - lots around the mall.  The outdoor area and grounds were clean.  The workout room had 2 treadmills never in use while we were there, though i used one and it was plenty spacious.  A nice touch was the theater room, bring your own movies and popcorn and snacks to the projector and 13 theater chairs. Next time for sure. I was expecting the Staybridge to be adequate as a business class hotel, but our family was pleasantly surprised it was above average for this category. We had plenty of room , more than enough.  The closed and laundry basket were nice as was FREE use of Washer Dryers on the property, though bring your own detergent.  If I had to complaint its minor: when the heat kicked on, it was loud, not loud enough to wake me up, but I had to adjust the TV volume.  Free Wifi and paper nice touch too and glad we could watch our HBO shows. Thanks Staybridge for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r235963547-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>235963547</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Great Pet friendly Hotel</t>
+  </si>
+  <si>
+    <t>Great little hotel, clean, well maintained and pet friendly. I really liked magnets that you posted outside door to let staff know there was pet in room. Made me feel safe that my pet wouldn't accidentally escape.  Both myself and my dog enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Great little hotel, clean, well maintained and pet friendly. I really liked magnets that you posted outside door to let staff know there was pet in room. Made me feel safe that my pet wouldn't accidentally escape.  Both myself and my dog enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r216423954-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>216423954</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Exzellent Hotel</t>
+  </si>
+  <si>
+    <t>I was there three weeks ago for Business. The rooms, are very clean and big. The Service are very good. I had my Birthday during the stay, and i bekame a Birthday cake from the hotel, thank you very much. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>I was there three weeks ago for Business. The rooms, are very clean and big. The Service are very good. I had my Birthday during the stay, and i bekame a Birthday cake from the hotel, thank you very much. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r213361943-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>213361943</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>#1 in PalmDale Area</t>
+  </si>
+  <si>
+    <t>I drove an extra hour to stay at this hotel because I love staybridge. I was treated like family by Brendan and Dannie at the front desk and Maria B made sure our clean and everything was excellent. I have to say that I didnt thin i could think any higher of the staybridge but after this visit I am even more satisfied!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>I drove an extra hour to stay at this hotel because I love staybridge. I was treated like family by Brendan and Dannie at the front desk and Maria B made sure our clean and everything was excellent. I have to say that I didnt thin i could think any higher of the staybridge but after this visit I am even more satisfied!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r212706988-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>212706988</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Best hotel ever.</t>
+  </si>
+  <si>
+    <t>This place is Amazing. The hotel staff Teana, Brendon,  Culleen, Isabella and the rest are amazing. They always speak to each guest and remember your name. I have stayed with them for almost a year working and I miss the hotel when I am not there. If there is ever a concern or a need they get on it immediately. I would highly recommend the Palmdale Staybridge to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This place is Amazing. The hotel staff Teana, Brendon,  Culleen, Isabella and the rest are amazing. They always speak to each guest and remember your name. I have stayed with them for almost a year working and I miss the hotel when I am not there. If there is ever a concern or a need they get on it immediately. I would highly recommend the Palmdale Staybridge to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r198461025-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>198461025</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Looking forward to staying here again!</t>
+  </si>
+  <si>
+    <t>Stayed here while on a very long road trip. In the car for 8 hours with my husband and 1 year old, made for a great place to relax in. We were very impressed when we walked in the room. I liked everything about what this hotel has to offer, 1 bedroom suite, with a kitchenette, laundry facility, nice ground to stretch out, we were very please. Everything was clean and of nice quality. I would only give this place 1 complaint in that we couldn't get milk for our 1 year old at their little store. The staff at the desk was friendly but had no interest in meeting our needs. We know they had milk there, kind of a silly thing to complain about but the previous place we were at offered us milk so we didn't have to go out and that's where we got the idea to ask. Also the staff appeared to have friends/ guests/ or co workers visiting them as in just hanging out at the front desk for hours. That certainly won't stop us from staying again as they were always friendly to us. One last thing, the room we stayed in had some food under the coffee table ( and on the curtains) that was not vacuumed up and I had to clean it quickly before my toddler found it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here while on a very long road trip. In the car for 8 hours with my husband and 1 year old, made for a great place to relax in. We were very impressed when we walked in the room. I liked everything about what this hotel has to offer, 1 bedroom suite, with a kitchenette, laundry facility, nice ground to stretch out, we were very please. Everything was clean and of nice quality. I would only give this place 1 complaint in that we couldn't get milk for our 1 year old at their little store. The staff at the desk was friendly but had no interest in meeting our needs. We know they had milk there, kind of a silly thing to complain about but the previous place we were at offered us milk so we didn't have to go out and that's where we got the idea to ask. Also the staff appeared to have friends/ guests/ or co workers visiting them as in just hanging out at the front desk for hours. That certainly won't stop us from staying again as they were always friendly to us. One last thing, the room we stayed in had some food under the coffee table ( and on the curtains) that was not vacuumed up and I had to clean it quickly before my toddler found it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r197665285-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>197665285</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Manager tried to make things right</t>
+  </si>
+  <si>
+    <t>I gave a negative rating and review last month given the bed was too soft and staff at the desk could offer me no improvement.  Just want to say, after posting my concerns on trip advisor, I received a very nice response from their management trying to make things right.While I probably would not stay at this chain again for the noted reason.  If you like softer beds I would recommend the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, Manager at Staybridge Suites Palmdale, responded to this reviewResponded March 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2014</t>
+  </si>
+  <si>
+    <t>I gave a negative rating and review last month given the bed was too soft and staff at the desk could offer me no improvement.  Just want to say, after posting my concerns on trip advisor, I received a very nice response from their management trying to make things right.While I probably would not stay at this chain again for the noted reason.  If you like softer beds I would recommend the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r197261186-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>197261186</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Simply Great</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and have stayed in more mid-range hotels than I care to remember, but I have to say the Staybridge Suites Palmdale is really one of the best.  The management must be doing something right, because all the the staff I interacted with were friendly and top-notch.  The amenities were exactly what I needed--coffee, healthy breakfast, LAUNDRY (free!), fitness center, a place for my team to work together, and a clean, comfortable room.  Everything worked, and if it didn't maintenance fixed it (they FOLLOWED UP--it's like a miracle).The thing that puts this place over the top is the complimentary light dinner in the evening that always included salad and fruit.  The food is good and the dining area pleasant, which is sooo great after a long day--especially when there is more work to do after dinner.Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and have stayed in more mid-range hotels than I care to remember, but I have to say the Staybridge Suites Palmdale is really one of the best.  The management must be doing something right, because all the the staff I interacted with were friendly and top-notch.  The amenities were exactly what I needed--coffee, healthy breakfast, LAUNDRY (free!), fitness center, a place for my team to work together, and a clean, comfortable room.  Everything worked, and if it didn't maintenance fixed it (they FOLLOWED UP--it's like a miracle).The thing that puts this place over the top is the complimentary light dinner in the evening that always included salad and fruit.  The food is good and the dining area pleasant, which is sooo great after a long day--especially when there is more work to do after dinner.Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r175579057-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>175579057</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Awsome</t>
+  </si>
+  <si>
+    <t>Me and my family went we had an excellent time the pool was kinda small but it was a really nice one of the best hotel breakfast I've ever had, their soap smelt nice,comfortable beds and small kitchenette  that had dishes and utensils,great service clean and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Me and my family went we had an excellent time the pool was kinda small but it was a really nice one of the best hotel breakfast I've ever had, their soap smelt nice,comfortable beds and small kitchenette  that had dishes and utensils,great service clean and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r174203037-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>174203037</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Business Week</t>
+  </si>
+  <si>
+    <t>WOW, what a super week.  To sum it up, the Staybridge Suites in Palmdale CA was simply Outstanding!  What really made my stay great were the positive and friendly attitudes of all the employees.  Everyone was very helpful and always greeted me with a smile.  The room was very clean with a good bed and a shower that worked perfectly.  The breakfast was a great way to start the day and the evening social, that included food and drink, was a wonderful way to finish the day.  I didn’t use the pool/Jacuzzi but they looked nice.  The Fitness Center was larger than normal and had free weights and bench, a weight machine along with the normal cardio equipment.  The location was close to the mall and many good eating establishments, but what I really enjoyed, was the safe location that allow for a daily run on a flat 1.1 mile loop just outside the door ... it was a fantastic way to start each day.  I will stay here on my next business or social trip to Palmdale CA.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2013</t>
+  </si>
+  <si>
+    <t>WOW, what a super week.  To sum it up, the Staybridge Suites in Palmdale CA was simply Outstanding!  What really made my stay great were the positive and friendly attitudes of all the employees.  Everyone was very helpful and always greeted me with a smile.  The room was very clean with a good bed and a shower that worked perfectly.  The breakfast was a great way to start the day and the evening social, that included food and drink, was a wonderful way to finish the day.  I didn’t use the pool/Jacuzzi but they looked nice.  The Fitness Center was larger than normal and had free weights and bench, a weight machine along with the normal cardio equipment.  The location was close to the mall and many good eating establishments, but what I really enjoyed, was the safe location that allow for a daily run on a flat 1.1 mile loop just outside the door ... it was a fantastic way to start each day.  I will stay here on my next business or social trip to Palmdale CA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r172360783-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>172360783</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>The best hotel</t>
+  </si>
+  <si>
+    <t>My husband came to work in Palmdale last June and I was with him. We stayed for 2 weeks.The staff was really friendly, they made you feel like at home. Gloria was the lady working in tge breakfast area and was so nice and professional and I had to mention that her cooking was really good. One good thing I have to mention about the breakfast is that they have a really good variety of food. You dont eat the same every day. The hotel offers some kind of dinner everyday except for weekends and fridays. They give you the menu of the month so you know what they are serving during your stay. The food was deliciuos, they also give you dessert and beer. It was awesome. One of the best hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded August 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2013</t>
+  </si>
+  <si>
+    <t>My husband came to work in Palmdale last June and I was with him. We stayed for 2 weeks.The staff was really friendly, they made you feel like at home. Gloria was the lady working in tge breakfast area and was so nice and professional and I had to mention that her cooking was really good. One good thing I have to mention about the breakfast is that they have a really good variety of food. You dont eat the same every day. The hotel offers some kind of dinner everyday except for weekends and fridays. They give you the menu of the month so you know what they are serving during your stay. The food was deliciuos, they also give you dessert and beer. It was awesome. One of the best hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r165470098-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>165470098</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>If all hotels were like this ...</t>
+  </si>
+  <si>
+    <t>Stayed at this property on two separate ocassions in June, 2013. The first time I arrived literally in the middle of the night (flight problems), around 3 am. The front desk clerk was as cheerful as if it was 5 pm, very friendly, got me checked-in instantly and I went to sleep immediately. The king suite was great! It appeared as if completely new, lots of space and everything you need for a longer stay. Too bad I was staying just one night. They even left a hand-signed welcome letter bearing my name in the room, since I am a PC Platinum member.
+Breakfast was nice, although the breakfast area is somewhat small in number of tables and filled up quickly. The hotel was fully booked, though.
+On my second stay I arrived earlier in the afternoon and decided to use the pool. I was the only person enjoying it for over an hour, It is sizeable and in a nicely landscaped backyard.
+The second brekfast was not as good as the first one as I was missing fresh strawberries. :(
+I only have two minor complaints - on my second arrival the A/C in my suite was not on, so I got a top-floor suite at almost 100 degrees, it took a while to bring it to "normal temperature". If you have an advance reservation passed your cancelation time I think A/C could be set on for the guest....Stayed at this property on two separate ocassions in June, 2013. The first time I arrived literally in the middle of the night (flight problems), around 3 am. The front desk clerk was as cheerful as if it was 5 pm, very friendly, got me checked-in instantly and I went to sleep immediately. The king suite was great! It appeared as if completely new, lots of space and everything you need for a longer stay. Too bad I was staying just one night. They even left a hand-signed welcome letter bearing my name in the room, since I am a PC Platinum member.Breakfast was nice, although the breakfast area is somewhat small in number of tables and filled up quickly. The hotel was fully booked, though.On my second stay I arrived earlier in the afternoon and decided to use the pool. I was the only person enjoying it for over an hour, It is sizeable and in a nicely landscaped backyard.The second brekfast was not as good as the first one as I was missing fresh strawberries. :(I only have two minor complaints - on my second arrival the A/C in my suite was not on, so I got a top-floor suite at almost 100 degrees, it took a while to bring it to "normal temperature". If you have an advance reservation passed your cancelation time I think A/C could be set on for the guest.My second remark goes for the pool closing hours - 10 pm as posted in the room directory. There was a large group of teenage kids (I counted 9) on my second stay who were louldy playing and partying in the pool area almost until 11 pm. It was bothersome for those trying to get an early sleep. I think front desk should make sure guests adhere to the posted closing time or at least don't make so much noise later ...Otherwise a magnificent property and great two stays! Will be back for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this property on two separate ocassions in June, 2013. The first time I arrived literally in the middle of the night (flight problems), around 3 am. The front desk clerk was as cheerful as if it was 5 pm, very friendly, got me checked-in instantly and I went to sleep immediately. The king suite was great! It appeared as if completely new, lots of space and everything you need for a longer stay. Too bad I was staying just one night. They even left a hand-signed welcome letter bearing my name in the room, since I am a PC Platinum member.
+Breakfast was nice, although the breakfast area is somewhat small in number of tables and filled up quickly. The hotel was fully booked, though.
+On my second stay I arrived earlier in the afternoon and decided to use the pool. I was the only person enjoying it for over an hour, It is sizeable and in a nicely landscaped backyard.
+The second brekfast was not as good as the first one as I was missing fresh strawberries. :(
+I only have two minor complaints - on my second arrival the A/C in my suite was not on, so I got a top-floor suite at almost 100 degrees, it took a while to bring it to "normal temperature". If you have an advance reservation passed your cancelation time I think A/C could be set on for the guest....Stayed at this property on two separate ocassions in June, 2013. The first time I arrived literally in the middle of the night (flight problems), around 3 am. The front desk clerk was as cheerful as if it was 5 pm, very friendly, got me checked-in instantly and I went to sleep immediately. The king suite was great! It appeared as if completely new, lots of space and everything you need for a longer stay. Too bad I was staying just one night. They even left a hand-signed welcome letter bearing my name in the room, since I am a PC Platinum member.Breakfast was nice, although the breakfast area is somewhat small in number of tables and filled up quickly. The hotel was fully booked, though.On my second stay I arrived earlier in the afternoon and decided to use the pool. I was the only person enjoying it for over an hour, It is sizeable and in a nicely landscaped backyard.The second brekfast was not as good as the first one as I was missing fresh strawberries. :(I only have two minor complaints - on my second arrival the A/C in my suite was not on, so I got a top-floor suite at almost 100 degrees, it took a while to bring it to "normal temperature". If you have an advance reservation passed your cancelation time I think A/C could be set on for the guest.My second remark goes for the pool closing hours - 10 pm as posted in the room directory. There was a large group of teenage kids (I counted 9) on my second stay who were louldy playing and partying in the pool area almost until 11 pm. It was bothersome for those trying to get an early sleep. I think front desk should make sure guests adhere to the posted closing time or at least don't make so much noise later ...Otherwise a magnificent property and great two stays! Will be back for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r164760461-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>164760461</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Wonderful surprise!!</t>
+  </si>
+  <si>
+    <t>After enduring a horrible experience the night before @ another Holiday Inn property in Barstow, CA.  I was very apprehensive about staying at a new HI property. My fears were dashed upon my arrival as I had requested parking for two 36' show trucks.  Upon my arrival, I found plenty of parking.  Then I entered the lobby and was happily greeted by the General Manager asking why we were in Palmdale.  I had reserved two one bedroom suites. They were beautiful and CLEAN!We were invited to a free stake dinner and free beer and wine. Wonderful.The next morning they had a great breakfast (included) and we were on our way.Thanks for a really wonderful experience.....MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded June 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2013</t>
+  </si>
+  <si>
+    <t>After enduring a horrible experience the night before @ another Holiday Inn property in Barstow, CA.  I was very apprehensive about staying at a new HI property. My fears were dashed upon my arrival as I had requested parking for two 36' show trucks.  Upon my arrival, I found plenty of parking.  Then I entered the lobby and was happily greeted by the General Manager asking why we were in Palmdale.  I had reserved two one bedroom suites. They were beautiful and CLEAN!We were invited to a free stake dinner and free beer and wine. Wonderful.The next morning they had a great breakfast (included) and we were on our way.Thanks for a really wonderful experience.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r161739837-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>161739837</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Truly a "Home Away from Home"</t>
+  </si>
+  <si>
+    <t>Our family stayed at the Staybridge Suites in Palmdale, CA for 3 weeks while our home was being renovated. The staff is so friendly and helpful. They accommocated our needs for more silverware, or dishes, etc. We love the amenities that are offered: easy parking, free laundry facilities (very important with 2 boys playing baseball games!), movie theatre you can reserve, basketball half court and soccer net, pool and hot tub. Breakfast and mid-week meal refreshments, coffee and sodas.We stayed in a 1 bedroom with a sofa sleeper, full kitchen, and livingroom, dressing area and bathroom, with a TV in the living room and the bedroom. My 7 and 9 year old boys thought they were at home, they made themselves very comfortable. (This was our 2nd stay at this hotel for an extended time. Great place to work from: Free WIFI, speaker phone, desk, comfortable chair, lots of electical outlets.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Our family stayed at the Staybridge Suites in Palmdale, CA for 3 weeks while our home was being renovated. The staff is so friendly and helpful. They accommocated our needs for more silverware, or dishes, etc. We love the amenities that are offered: easy parking, free laundry facilities (very important with 2 boys playing baseball games!), movie theatre you can reserve, basketball half court and soccer net, pool and hot tub. Breakfast and mid-week meal refreshments, coffee and sodas.We stayed in a 1 bedroom with a sofa sleeper, full kitchen, and livingroom, dressing area and bathroom, with a TV in the living room and the bedroom. My 7 and 9 year old boys thought they were at home, they made themselves very comfortable. (This was our 2nd stay at this hotel for an extended time. Great place to work from: Free WIFI, speaker phone, desk, comfortable chair, lots of electical outlets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r159483140-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>159483140</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Mostly good, BUT</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights on points.  Not upgraded, although platinum.  welcome gift not offered (asked later and got a couple cookies), but we were greeted.  Parking good.  Check in generally good.  Room spacious for standard.  Weekday free "lite dinner", spagetti and meat balls only partically warmed up, both of us got sick that night.  Wine, beer, soda and coffee offered.  Nice salad as well.  Toast.  Must ask for maid service on the weekend.  Breakfast good.  Selection a bit less on weekend.  Seating unavailable on Sunday due to a soccer team and parents/coachs taking all in and out, with the rest of us trying to make it where we could.  Access to food that day tough, but everythng was kept up with by employee!  Problem with HBO access was eventually fixed.  We stay at Priority Club properties often, and would stay here again, if in the area, but would check out the "group bookings" and avoid those nights.  Groups all go to everything at the same time, overwhelming waht ever that service is...pool, breakfast or...  Common space was messy Sunday, but the group of "kids" did not have theri mothers to pick up for them.  the days before everyghing was good...hall floors, elevators and dining room.  ownership must make the choice when making such group bookings...could impact their "general business".  Pillows iffy.  Quiet.  Point score would have varied materially depending on the night in question.MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded May 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2013</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights on points.  Not upgraded, although platinum.  welcome gift not offered (asked later and got a couple cookies), but we were greeted.  Parking good.  Check in generally good.  Room spacious for standard.  Weekday free "lite dinner", spagetti and meat balls only partically warmed up, both of us got sick that night.  Wine, beer, soda and coffee offered.  Nice salad as well.  Toast.  Must ask for maid service on the weekend.  Breakfast good.  Selection a bit less on weekend.  Seating unavailable on Sunday due to a soccer team and parents/coachs taking all in and out, with the rest of us trying to make it where we could.  Access to food that day tough, but everythng was kept up with by employee!  Problem with HBO access was eventually fixed.  We stay at Priority Club properties often, and would stay here again, if in the area, but would check out the "group bookings" and avoid those nights.  Groups all go to everything at the same time, overwhelming waht ever that service is...pool, breakfast or...  Common space was messy Sunday, but the group of "kids" did not have theri mothers to pick up for them.  the days before everyghing was good...hall floors, elevators and dining room.  ownership must make the choice when making such group bookings...could impact their "general business".  Pillows iffy.  Quiet.  Point score would have varied materially depending on the night in question.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r155338399-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>155338399</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Another great stay at Staybridge, Palmdale, CA</t>
+  </si>
+  <si>
+    <t>I stay here for a week once a year on extended business and it never disappoints me. The rooms, bed, and kitchen areas are top notch; the breakfast and evening meals are exceptional considering they are included for free. It's the only hotel I've found with a home theater room to watch DVD's. I can't really think of anything they could improve on except maybe better Wi-Fi service, mine was out for two days due to a equipment breakdown. It's very well suited for longer term work travel and I always choose it over Marriot's Residence Inns if I can.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>I stay here for a week once a year on extended business and it never disappoints me. The rooms, bed, and kitchen areas are top notch; the breakfast and evening meals are exceptional considering they are included for free. It's the only hotel I've found with a home theater room to watch DVD's. I can't really think of anything they could improve on except maybe better Wi-Fi service, mine was out for two days due to a equipment breakdown. It's very well suited for longer term work travel and I always choose it over Marriot's Residence Inns if I can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r154573800-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>154573800</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Exceptional stay, no parking lot security</t>
+  </si>
+  <si>
+    <t>The rooms, staff and amenities are exceptional, however the location leaves something to be desired.  I had saddlebags stolen from my motorcycle in broad daylight.  No security cameras, and apparently a random security patrol on site only randomly patrols at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The rooms, staff and amenities are exceptional, however the location leaves something to be desired.  I had saddlebags stolen from my motorcycle in broad daylight.  No security cameras, and apparently a random security patrol on site only randomly patrols at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r146974942-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>146974942</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>Excellent accommodation</t>
+  </si>
+  <si>
+    <t>We had an overnight stay at the Staybridge Suites, Palmdale on our drive from Las Vegas to San Francisco. The check in was quick if not too friendly and the room was fine. Not as good as the Staybridge Suites in Las Vegas but clean, spacious and good value.We ate the complimentary dinner and it was fine, nothing to write home about but it meant that we didn't have to venture away from the hotel. It included wine and beer between 5.30pm and 7.30pm and the dining area is pleasant enough.Breakfast the next morning was also fine, fruit, cereals, hot and cold selections with juices and coffee.The hotel is somewhat out on a limb in a big town/city in which you need a car to get around.It suited our purpose for the evening as it was on our route but if returning to the area we would probably choose somewhere else other than Palmdale. However, if you are looking for value for money, the Staybridge Suites is on the button! One word of warning, the address is West Park Drive, not Westpark Drive as given by some of the internet booking agents such as Hotels.com. The SatNav only recognised the first with West and Park being two separated words.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2012</t>
+  </si>
+  <si>
+    <t>We had an overnight stay at the Staybridge Suites, Palmdale on our drive from Las Vegas to San Francisco. The check in was quick if not too friendly and the room was fine. Not as good as the Staybridge Suites in Las Vegas but clean, spacious and good value.We ate the complimentary dinner and it was fine, nothing to write home about but it meant that we didn't have to venture away from the hotel. It included wine and beer between 5.30pm and 7.30pm and the dining area is pleasant enough.Breakfast the next morning was also fine, fruit, cereals, hot and cold selections with juices and coffee.The hotel is somewhat out on a limb in a big town/city in which you need a car to get around.It suited our purpose for the evening as it was on our route but if returning to the area we would probably choose somewhere else other than Palmdale. However, if you are looking for value for money, the Staybridge Suites is on the button! One word of warning, the address is West Park Drive, not Westpark Drive as given by some of the internet booking agents such as Hotels.com. The SatNav only recognised the first with West and Park being two separated words.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r146526822-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>146526822</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Pleasure in Palmdale</t>
+  </si>
+  <si>
+    <t>This was an excellent hotel. Very clean and staff as friendly as they could be. We were surprised by the very nice complementary evening meal, and way above average complementary breakfast.I did not notice on the website, there was a $75 pet fee. Far too much for our small (10#) dog., So, I was disappointed about that. But if you don't have a pet you will enjoy this property, and the meals make it a very good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This was an excellent hotel. Very clean and staff as friendly as they could be. We were surprised by the very nice complementary evening meal, and way above average complementary breakfast.I did not notice on the website, there was a $75 pet fee. Far too much for our small (10#) dog., So, I was disappointed about that. But if you don't have a pet you will enjoy this property, and the meals make it a very good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r146086592-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>146086592</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>As to be expected.</t>
+  </si>
+  <si>
+    <t>Stayed in a studio suite for a week on business. Room was nice and clean. The kitchenette was a little cramped and didn't have a stove, but everything else was functional. The bed was very comfortable.Had some problems with the signal strength of their wireless network, but the wall jack worked just fine.The breakfasts were great. Good variety with a lot of options and a lot of hot food. The complimentary dinners during the week were a helpful touch. They weren't fancy, but it's nice not to have to leave the hotel to get dinner.Overall, I'd stay here again, but I'd feel a lot better about it if it wasn't paying so much (or if I was staying on someone else's dime.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in a studio suite for a week on business. Room was nice and clean. The kitchenette was a little cramped and didn't have a stove, but everything else was functional. The bed was very comfortable.Had some problems with the signal strength of their wireless network, but the wall jack worked just fine.The breakfasts were great. Good variety with a lot of options and a lot of hot food. The complimentary dinners during the week were a helpful touch. They weren't fancy, but it's nice not to have to leave the hotel to get dinner.Overall, I'd stay here again, but I'd feel a lot better about it if it wasn't paying so much (or if I was staying on someone else's dime.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r130881338-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>130881338</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Count the hangers!!!!!!</t>
+  </si>
+  <si>
+    <t>Overall our stay at this facility was very good. Friendly staff, clean rooms and an excellent breakfast. However, upon our return home, we discovered that the $25.00 "incidental" fee was left on our final charges. When my husband called he was informed that the $25.00 fee was kept for 10 hangers that were missing from the room. Missing? Where was I going to stuff 10 hangers as we had two small suitcases and were flying back home across the country?!!!! We were advised to call the manager the following day. I called the manager today and stated that I didn't use the hangers and couldn't possibly have stolen 10 hangers!!! Begrudgingly, they agreed to credit our account. The manager sounded exasperated...I don't think this is the first time she's had this conversation! Just count the hangers when you arrive....and avoid any of this nonsense!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, Manager at Staybridge Suites Palmdale, responded to this reviewResponded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Overall our stay at this facility was very good. Friendly staff, clean rooms and an excellent breakfast. However, upon our return home, we discovered that the $25.00 "incidental" fee was left on our final charges. When my husband called he was informed that the $25.00 fee was kept for 10 hangers that were missing from the room. Missing? Where was I going to stuff 10 hangers as we had two small suitcases and were flying back home across the country?!!!! We were advised to call the manager the following day. I called the manager today and stated that I didn't use the hangers and couldn't possibly have stolen 10 hangers!!! Begrudgingly, they agreed to credit our account. The manager sounded exasperated...I don't think this is the first time she's had this conversation! Just count the hangers when you arrive....and avoid any of this nonsense!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r128078940-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>128078940</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>No reservations but great treatment</t>
+  </si>
+  <si>
+    <t>My wife had just got out of the hospital after surgery in an out of our state hospital. We didn't know when she would be getting out so we had no reservations. I went to the desk and told Kathy my problem. She gave me a key card to a room to make sure that the handicapped room would fit our problem before checking in. The room was fine and well equipped for a handicapped person.  During our week at the Staybridge I found all the staff to be pleasant and helpful.  The food court people were nice and had the food well stocked at all times. I left an Item in the dining area. Kathy saw I had been sitting in that area and got the item returned to me. Top to bottom the staff wanted to make our stay pleasant, and it was.MoreShow less</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, Manager at Staybridge Suites Palmdale, responded to this reviewResponded May 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2012</t>
+  </si>
+  <si>
+    <t>My wife had just got out of the hospital after surgery in an out of our state hospital. We didn't know when she would be getting out so we had no reservations. I went to the desk and told Kathy my problem. She gave me a key card to a room to make sure that the handicapped room would fit our problem before checking in. The room was fine and well equipped for a handicapped person.  During our week at the Staybridge I found all the staff to be pleasant and helpful.  The food court people were nice and had the food well stocked at all times. I left an Item in the dining area. Kathy saw I had been sitting in that area and got the item returned to me. Top to bottom the staff wanted to make our stay pleasant, and it was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r126478192-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>126478192</t>
+  </si>
+  <si>
+    <t>03/22/2012</t>
+  </si>
+  <si>
+    <t>Bait and Switch</t>
+  </si>
+  <si>
+    <t>I booked this room 2 months in advance based upon high ratings from other travelers. And while their reviews may in fact reflect the condition of the hotel I can only assume that they actually got to stay there.  When I checked in (or attempted to check in) after a very long day of travel the clerk (Michael) said that they had no more reservations for that day and insisted that we did not have a reservation.  Upon showing him the confirmation (that included a late arrival guarantee) he then said that we must have cancelled -- again totally wrong. We push harder and then he "fessed up" that our reservation was moved the the MUCH older and lesser sister property of the Holiday Inn. They offered no explanation whatsoever as to why.
+We went over to the Holiday Inn and all they had to offer was two free drink coupons (mind you that we checked in at 11:30 PM) but the bar closed at 10:00 PM and the coupons were only valid on the day of issue.  The clerk at the Holiday Inn confessed that we were likely moved because we were only staying for one night -- seems this is a common practice since both properties are run by the same General Manager.
+I suppose that if you were one of the lucky ones who had their reservation honored you would give the place a solid rating (and...I booked this room 2 months in advance based upon high ratings from other travelers. And while their reviews may in fact reflect the condition of the hotel I can only assume that they actually got to stay there.  When I checked in (or attempted to check in) after a very long day of travel the clerk (Michael) said that they had no more reservations for that day and insisted that we did not have a reservation.  Upon showing him the confirmation (that included a late arrival guarantee) he then said that we must have cancelled -- again totally wrong. We push harder and then he "fessed up" that our reservation was moved the the MUCH older and lesser sister property of the Holiday Inn. They offered no explanation whatsoever as to why.We went over to the Holiday Inn and all they had to offer was two free drink coupons (mind you that we checked in at 11:30 PM) but the bar closed at 10:00 PM and the coupons were only valid on the day of issue.  The clerk at the Holiday Inn confessed that we were likely moved because we were only staying for one night -- seems this is a common practice since both properties are run by the same General Manager.I suppose that if you were one of the lucky ones who had their reservation honored you would give the place a solid rating (and this has been my experience with other Staybridge Hotels) but the management of the Palmdale Staybridge demonstrates all that is wrong in the hospitality industry.I fully expect that the hotel response will be something to the effect like PalmdaleMike, Manager at Staybridge Suites Palmdale had stated in two other very similar instances -- "I sincerely apologize" ... blah blah blah  ... and "My staff and I would very much like to be your choice of hotel in the furture and do hope you will consider giving us another chance".  Why do you deserve another chance? You could not honor what was your prior commitment so why do I think you will honor it in the future. Empty promises hold no value.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Palmdale, responded to this reviewResponded April 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2012</t>
+  </si>
+  <si>
+    <t>I booked this room 2 months in advance based upon high ratings from other travelers. And while their reviews may in fact reflect the condition of the hotel I can only assume that they actually got to stay there.  When I checked in (or attempted to check in) after a very long day of travel the clerk (Michael) said that they had no more reservations for that day and insisted that we did not have a reservation.  Upon showing him the confirmation (that included a late arrival guarantee) he then said that we must have cancelled -- again totally wrong. We push harder and then he "fessed up" that our reservation was moved the the MUCH older and lesser sister property of the Holiday Inn. They offered no explanation whatsoever as to why.
+We went over to the Holiday Inn and all they had to offer was two free drink coupons (mind you that we checked in at 11:30 PM) but the bar closed at 10:00 PM and the coupons were only valid on the day of issue.  The clerk at the Holiday Inn confessed that we were likely moved because we were only staying for one night -- seems this is a common practice since both properties are run by the same General Manager.
+I suppose that if you were one of the lucky ones who had their reservation honored you would give the place a solid rating (and...I booked this room 2 months in advance based upon high ratings from other travelers. And while their reviews may in fact reflect the condition of the hotel I can only assume that they actually got to stay there.  When I checked in (or attempted to check in) after a very long day of travel the clerk (Michael) said that they had no more reservations for that day and insisted that we did not have a reservation.  Upon showing him the confirmation (that included a late arrival guarantee) he then said that we must have cancelled -- again totally wrong. We push harder and then he "fessed up" that our reservation was moved the the MUCH older and lesser sister property of the Holiday Inn. They offered no explanation whatsoever as to why.We went over to the Holiday Inn and all they had to offer was two free drink coupons (mind you that we checked in at 11:30 PM) but the bar closed at 10:00 PM and the coupons were only valid on the day of issue.  The clerk at the Holiday Inn confessed that we were likely moved because we were only staying for one night -- seems this is a common practice since both properties are run by the same General Manager.I suppose that if you were one of the lucky ones who had their reservation honored you would give the place a solid rating (and this has been my experience with other Staybridge Hotels) but the management of the Palmdale Staybridge demonstrates all that is wrong in the hospitality industry.I fully expect that the hotel response will be something to the effect like PalmdaleMike, Manager at Staybridge Suites Palmdale had stated in two other very similar instances -- "I sincerely apologize" ... blah blah blah  ... and "My staff and I would very much like to be your choice of hotel in the furture and do hope you will consider giving us another chance".  Why do you deserve another chance? You could not honor what was your prior commitment so why do I think you will honor it in the future. Empty promises hold no value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r121213676-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>121213676</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>Great Value &amp; Very Clean</t>
+  </si>
+  <si>
+    <t>Staybridge Suites was a nice surprise.  The hotel was very clean and offered unexpected amenities.  There was a theater room with over-sized leather chairs and large, mounted flat panel tv.  There was a library area where you could check out books, dvds, and use the computers provided by the hotel. There was a laundry room &amp; the machines didn't require any money/coins to use.  There was also a convenience store &amp; an outside basketball court.  The room provided a refrigerator, microwave, dishes, &amp; a sink, which came in handy.  The bed was very comfortable &amp; the bathroom had space to move around.  The television can be seen from the bed or the sofa, sitting area.  The room also provided a DVD player.  The complimentary breakfast was nice &amp; hot &amp; offered a variety of items.  We were very pleased with the price we paid &amp; what we received.  We definitely will stay @ Staybridge Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>StayBridgePalmdale, Manager at Staybridge Suites Palmdale, responded to this reviewResponded May 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2012</t>
+  </si>
+  <si>
+    <t>Staybridge Suites was a nice surprise.  The hotel was very clean and offered unexpected amenities.  There was a theater room with over-sized leather chairs and large, mounted flat panel tv.  There was a library area where you could check out books, dvds, and use the computers provided by the hotel. There was a laundry room &amp; the machines didn't require any money/coins to use.  There was also a convenience store &amp; an outside basketball court.  The room provided a refrigerator, microwave, dishes, &amp; a sink, which came in handy.  The bed was very comfortable &amp; the bathroom had space to move around.  The television can be seen from the bed or the sofa, sitting area.  The room also provided a DVD player.  The complimentary breakfast was nice &amp; hot &amp; offered a variety of items.  We were very pleased with the price we paid &amp; what we received.  We definitely will stay @ Staybridge Suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r121106999-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>121106999</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>Wonderful suprise!</t>
+  </si>
+  <si>
+    <t>What a pleasant place to stay in Palmdale, CA. Every employee I came across was extremely polite and went above an beyond. The hotel offers nice little extras that make you feel like they understand what you need in a hotel (nope, you don't have to pay $5 for that bottle of water left in your room). Will definitely stay here again when I am back in townMoreShow less</t>
+  </si>
+  <si>
+    <t>What a pleasant place to stay in Palmdale, CA. Every employee I came across was extremely polite and went above an beyond. The hotel offers nice little extras that make you feel like they understand what you need in a hotel (nope, you don't have to pay $5 for that bottle of water left in your room). Will definitely stay here again when I am back in townMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r120548678-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>120548678</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I stayed one night and was happy with everything this hotel had to offer.  My room was very clean and comfortable and the staff was pleasant and helpful.  The hotel was also easy to locate.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one night and was happy with everything this hotel had to offer.  My room was very clean and comfortable and the staff was pleasant and helpful.  The hotel was also easy to locate.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r119069308-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>119069308</t>
+  </si>
+  <si>
+    <t>10/08/2011</t>
+  </si>
+  <si>
+    <t>Excellent Value, Lots of Freebies</t>
+  </si>
+  <si>
+    <t>Stayed here for the night before the Leona Valley Inaugural Trail Race in Lake HughesMy Pluses:Free Coffee 24 hours, free breakfast (but will not be able to enjoy it as we have to leave early for the trail race), requested a late check-out and was granted with no extra fee, was asked to stay whatever floor we wanted (they are not that busy on Friday night), welcome coffee tea popcorn,  kitchen utilities/equipment - microwave, refrigerator (good for runners who have to bring their own food), Friendly staff.Cons: None.I may just  have to stay here every year before the Leona Valley Trail Race (this race is also great value and gives out really cool tech shirt)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for the night before the Leona Valley Inaugural Trail Race in Lake HughesMy Pluses:Free Coffee 24 hours, free breakfast (but will not be able to enjoy it as we have to leave early for the trail race), requested a late check-out and was granted with no extra fee, was asked to stay whatever floor we wanted (they are not that busy on Friday night), welcome coffee tea popcorn,  kitchen utilities/equipment - microwave, refrigerator (good for runners who have to bring their own food), Friendly staff.Cons: None.I may just  have to stay here every year before the Leona Valley Trail Race (this race is also great value and gives out really cool tech shirt)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r118895402-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>118895402</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Best experience EVER!!!</t>
+  </si>
+  <si>
+    <t>Spent 4 nights at the Palmdale Staybridge Suites and am already planning a long term stay there next year. Although there were some problems in the first room we were given, the maintenance person arrived just moments after we called the front desk. He handled the inspection professionally and when it was determined that there would possibly be a delay in getting the right parts to fix the ac/heater, we were offered another room and staff to help us move our belongings there if we wished. Unfortunately, it just so happened that the second room also had an issue, but, after moving us to a third room, the assistant manager offered to make an adjustment to our bill due to the inconvenience. Things happen sometimes, but what's most important is how the staff handles  problems that arise, and you couldn't ask for any better treatment than we got from Candace, Russ, Crystal, and the rest of the staff.
+We stayed in a king suite which consisted of a large living area and a separate bedroom with bathroom. Staybridge offers free WiFi in the room with a password guests can get from the front desk. The furnishings in the suite were stylish, functional, and attractive. There was  granite  on the eating island and kitchen countertops, a standard size fridge/freezer (complete with filled ice cube trays), a cute 2 burner stove, a microwave, a dishwasher, a 12 cup coffee pot, a sink,...Spent 4 nights at the Palmdale Staybridge Suites and am already planning a long term stay there next year. Although there were some problems in the first room we were given, the maintenance person arrived just moments after we called the front desk. He handled the inspection professionally and when it was determined that there would possibly be a delay in getting the right parts to fix the ac/heater, we were offered another room and staff to help us move our belongings there if we wished. Unfortunately, it just so happened that the second room also had an issue, but, after moving us to a third room, the assistant manager offered to make an adjustment to our bill due to the inconvenience. Things happen sometimes, but what's most important is how the staff handles  problems that arise, and you couldn't ask for any better treatment than we got from Candace, Russ, Crystal, and the rest of the staff.We stayed in a king suite which consisted of a large living area and a separate bedroom with bathroom. Staybridge offers free WiFi in the room with a password guests can get from the front desk. The furnishings in the suite were stylish, functional, and attractive. There was  granite  on the eating island and kitchen countertops, a standard size fridge/freezer (complete with filled ice cube trays), a cute 2 burner stove, a microwave, a dishwasher, a 12 cup coffee pot, a sink, and cupboards with plates, bowls, mugs, glasses of all kinds, storage containers, and silverware. In a basket on the counter were packets of Wolfgang Puck coffee to make, teabags, sweeteners, and a package of microwaveable popcorn.There was a good size flat screen TV in the living room and another one in the bedroom, along with a DVD player. One can borrow a movie from the hotel's collection downstairs in the business center, by just signing it out (and in) at the front desk. (Likewise with the paperback book collection there). Our room was spotless and everything worked well. Great quality linens and towels, too!Can't say enough positive things for the efficiency and courtesy of the housekeeping staff. In fact, we left a tip for them in the room when we checked out - they were that good!Every morning, the hotel offers a complimentary full breakfast, cafeteria style. Eggs, bacon, sausage, cold cereal, oatmeal (choice of nice toppings), sliced fruit, yogurt, juices, breads, bagels, rolls, make-your-own waffles, and so on. Monday through Thursday, they offer a reception that's also free to guests. Each night, some different main dish is offered, such as chicken wings, BBQ hot dogs &amp; hamburgers, sloppy joes &amp; baked beans, pot roast &amp; steamed veggies while we were there. To go with, they have fresh salad with choice of dressing, sliced melon, salsa and chips, wine, and beer on tap. Totally awesome!The pool is sparkling, as is the hot tub. Was able to do meaningful laps most days and then relax on one of the many poolside reclining chairs or at one of the tables. Bathhouse adjacent to the pool was a great convenience. One can use the nice big BBQ that sits under a shade by the pool.The fitness center is one of the best I've seen - and I always check that out the moment I arrive at any hotel anywhere. Clean, neat, well-equipped! There's a free guest laundry room, too, as well as a room set up like a home theater, with a few rows of 3-4 leather(like?) theater chairs facing the large screen. The business center has 2 computers and a printer guests can use at not charge. Truthfully, there is nothing not to like about the staff or the facility. You should definitely stay at Staybridge - and that's the bottom line. We found it quite reasonably priced and an amazing value!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Spent 4 nights at the Palmdale Staybridge Suites and am already planning a long term stay there next year. Although there were some problems in the first room we were given, the maintenance person arrived just moments after we called the front desk. He handled the inspection professionally and when it was determined that there would possibly be a delay in getting the right parts to fix the ac/heater, we were offered another room and staff to help us move our belongings there if we wished. Unfortunately, it just so happened that the second room also had an issue, but, after moving us to a third room, the assistant manager offered to make an adjustment to our bill due to the inconvenience. Things happen sometimes, but what's most important is how the staff handles  problems that arise, and you couldn't ask for any better treatment than we got from Candace, Russ, Crystal, and the rest of the staff.
+We stayed in a king suite which consisted of a large living area and a separate bedroom with bathroom. Staybridge offers free WiFi in the room with a password guests can get from the front desk. The furnishings in the suite were stylish, functional, and attractive. There was  granite  on the eating island and kitchen countertops, a standard size fridge/freezer (complete with filled ice cube trays), a cute 2 burner stove, a microwave, a dishwasher, a 12 cup coffee pot, a sink,...Spent 4 nights at the Palmdale Staybridge Suites and am already planning a long term stay there next year. Although there were some problems in the first room we were given, the maintenance person arrived just moments after we called the front desk. He handled the inspection professionally and when it was determined that there would possibly be a delay in getting the right parts to fix the ac/heater, we were offered another room and staff to help us move our belongings there if we wished. Unfortunately, it just so happened that the second room also had an issue, but, after moving us to a third room, the assistant manager offered to make an adjustment to our bill due to the inconvenience. Things happen sometimes, but what's most important is how the staff handles  problems that arise, and you couldn't ask for any better treatment than we got from Candace, Russ, Crystal, and the rest of the staff.We stayed in a king suite which consisted of a large living area and a separate bedroom with bathroom. Staybridge offers free WiFi in the room with a password guests can get from the front desk. The furnishings in the suite were stylish, functional, and attractive. There was  granite  on the eating island and kitchen countertops, a standard size fridge/freezer (complete with filled ice cube trays), a cute 2 burner stove, a microwave, a dishwasher, a 12 cup coffee pot, a sink, and cupboards with plates, bowls, mugs, glasses of all kinds, storage containers, and silverware. In a basket on the counter were packets of Wolfgang Puck coffee to make, teabags, sweeteners, and a package of microwaveable popcorn.There was a good size flat screen TV in the living room and another one in the bedroom, along with a DVD player. One can borrow a movie from the hotel's collection downstairs in the business center, by just signing it out (and in) at the front desk. (Likewise with the paperback book collection there). Our room was spotless and everything worked well. Great quality linens and towels, too!Can't say enough positive things for the efficiency and courtesy of the housekeeping staff. In fact, we left a tip for them in the room when we checked out - they were that good!Every morning, the hotel offers a complimentary full breakfast, cafeteria style. Eggs, bacon, sausage, cold cereal, oatmeal (choice of nice toppings), sliced fruit, yogurt, juices, breads, bagels, rolls, make-your-own waffles, and so on. Monday through Thursday, they offer a reception that's also free to guests. Each night, some different main dish is offered, such as chicken wings, BBQ hot dogs &amp; hamburgers, sloppy joes &amp; baked beans, pot roast &amp; steamed veggies while we were there. To go with, they have fresh salad with choice of dressing, sliced melon, salsa and chips, wine, and beer on tap. Totally awesome!The pool is sparkling, as is the hot tub. Was able to do meaningful laps most days and then relax on one of the many poolside reclining chairs or at one of the tables. Bathhouse adjacent to the pool was a great convenience. One can use the nice big BBQ that sits under a shade by the pool.The fitness center is one of the best I've seen - and I always check that out the moment I arrive at any hotel anywhere. Clean, neat, well-equipped! There's a free guest laundry room, too, as well as a room set up like a home theater, with a few rows of 3-4 leather(like?) theater chairs facing the large screen. The business center has 2 computers and a printer guests can use at not charge. Truthfully, there is nothing not to like about the staff or the facility. You should definitely stay at Staybridge - and that's the bottom line. We found it quite reasonably priced and an amazing value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r117814132-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>117814132</t>
+  </si>
+  <si>
+    <t>09/07/2011</t>
+  </si>
+  <si>
+    <t>Absolutely fabulous - congratulations</t>
+  </si>
+  <si>
+    <t>This hotel is brilliant - it will take something really special to better this in Palmdale.
+We booked in for one night and stayed for three, would have been longer if we could have. We've been travelling California and this was the best hotel of the ten we stayed in by miles.  It was also one of the cheapest.
+Check in was great and very welcoming, immediately felt at home. The place is very new and absolutely spotless everywhere, cleaning seems to be on-going constantly.
+We booked a king bed suite and it was amazing. Very comfy big bed, excellent comfy and homely furnishings, full fridge freezer, microwave, hotplates, utensils etc. Two big flatscreen tvs, motion sensor lights - excellent for the bathroom at night. It was unbelievably welcoming and comfortable.
+We used the gym, again well equipped and good. There were complementary laundry facilities, just had to buy powder at a dollar, and these were very welcoming to wash a few things after two weeks out of a suitcase. 
+Breakfast was continental with a good selection. This included being able to take a few things in a bag to help you through lunch as well. Soft drinks and coffee were also available all day on a complimentary basis.
+There was a small pool out the back with sun loungers, very quiet but just ideal for us to catch some sun. We could even have used the BBQ facilities if...This hotel is brilliant - it will take something really special to better this in Palmdale.We booked in for one night and stayed for three, would have been longer if we could have. We've been travelling California and this was the best hotel of the ten we stayed in by miles.  It was also one of the cheapest.Check in was great and very welcoming, immediately felt at home. The place is very new and absolutely spotless everywhere, cleaning seems to be on-going constantly.We booked a king bed suite and it was amazing. Very comfy big bed, excellent comfy and homely furnishings, full fridge freezer, microwave, hotplates, utensils etc. Two big flatscreen tvs, motion sensor lights - excellent for the bathroom at night. It was unbelievably welcoming and comfortable.We used the gym, again well equipped and good. There were complementary laundry facilities, just had to buy powder at a dollar, and these were very welcoming to wash a few things after two weeks out of a suitcase. Breakfast was continental with a good selection. This included being able to take a few things in a bag to help you through lunch as well. Soft drinks and coffee were also available all day on a complimentary basis.There was a small pool out the back with sun loungers, very quiet but just ideal for us to catch some sun. We could even have used the BBQ facilities if we'd wanted.All the staff were excellent and helpful.  We liked Palmdale, not really touristy, but nice and relaxed. You will need a car to get to most of the town - unless you take up the hotel offer of a free 10mile radius shuttle! Only minor issue is that the air con in the room was a bit noisy and given the climate you can't really avoid using it.This hotel is stunning value for the money and deservedly the best in the region. We couldn't praise it enough. Congratulations to all! MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is brilliant - it will take something really special to better this in Palmdale.
+We booked in for one night and stayed for three, would have been longer if we could have. We've been travelling California and this was the best hotel of the ten we stayed in by miles.  It was also one of the cheapest.
+Check in was great and very welcoming, immediately felt at home. The place is very new and absolutely spotless everywhere, cleaning seems to be on-going constantly.
+We booked a king bed suite and it was amazing. Very comfy big bed, excellent comfy and homely furnishings, full fridge freezer, microwave, hotplates, utensils etc. Two big flatscreen tvs, motion sensor lights - excellent for the bathroom at night. It was unbelievably welcoming and comfortable.
+We used the gym, again well equipped and good. There were complementary laundry facilities, just had to buy powder at a dollar, and these were very welcoming to wash a few things after two weeks out of a suitcase. 
+Breakfast was continental with a good selection. This included being able to take a few things in a bag to help you through lunch as well. Soft drinks and coffee were also available all day on a complimentary basis.
+There was a small pool out the back with sun loungers, very quiet but just ideal for us to catch some sun. We could even have used the BBQ facilities if...This hotel is brilliant - it will take something really special to better this in Palmdale.We booked in for one night and stayed for three, would have been longer if we could have. We've been travelling California and this was the best hotel of the ten we stayed in by miles.  It was also one of the cheapest.Check in was great and very welcoming, immediately felt at home. The place is very new and absolutely spotless everywhere, cleaning seems to be on-going constantly.We booked a king bed suite and it was amazing. Very comfy big bed, excellent comfy and homely furnishings, full fridge freezer, microwave, hotplates, utensils etc. Two big flatscreen tvs, motion sensor lights - excellent for the bathroom at night. It was unbelievably welcoming and comfortable.We used the gym, again well equipped and good. There were complementary laundry facilities, just had to buy powder at a dollar, and these were very welcoming to wash a few things after two weeks out of a suitcase. Breakfast was continental with a good selection. This included being able to take a few things in a bag to help you through lunch as well. Soft drinks and coffee were also available all day on a complimentary basis.There was a small pool out the back with sun loungers, very quiet but just ideal for us to catch some sun. We could even have used the BBQ facilities if we'd wanted.All the staff were excellent and helpful.  We liked Palmdale, not really touristy, but nice and relaxed. You will need a car to get to most of the town - unless you take up the hotel offer of a free 10mile radius shuttle! Only minor issue is that the air con in the room was a bit noisy and given the climate you can't really avoid using it.This hotel is stunning value for the money and deservedly the best in the region. We couldn't praise it enough. Congratulations to all! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r108150184-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>108150184</t>
+  </si>
+  <si>
+    <t>05/13/2011</t>
+  </si>
+  <si>
+    <t>Our Only Palmdale Home</t>
+  </si>
+  <si>
+    <t>We have lived in hotels for the past year.  We were lucky enough to have lived at the Palmdale Staybridge twice in the past year, 6 weeks each time.  We loved it here. Wonderful staff.  Always went above and beyond.  If we ever drive through Palmdale without needing a room, we will probably stop in just to say hi to all of our staff friends.  Nice, newer, clean rooms. Comfy beds.Plenty of room in the bathroom areas. Yummy breakfast each day, Light dinner M-T.  Cookout every Wed. - extra yummy.   Free soft drinks/coffee all day. Warm fresh cookies most nights. Free WiFi,  FREE Laundry room with front loader washers! Very Pet Friendly, Nicely landscaped courtyard/pool view from the inner rooms. The only thing I didn't like was the wind.  Palmdale always seems windy and since the hotel doesn't control that it doesn't really seem fair to mention it.  Except to highlight the fact that I was able to swim in the pool any day (even when chilly) because they keep it nice and warm.  So here is how I wrap up our stay.  As I lay in the pool one afternoon, April was cooking my dinner on the grill (with all the wonderful cookout smells) and Milton is hanging out my 3rd story windows cleaning the outside of them for me (cause I'm a clean window freak).  I felt PAMPERED!  This is the only place we will stay when in...We have lived in hotels for the past year.  We were lucky enough to have lived at the Palmdale Staybridge twice in the past year, 6 weeks each time.  We loved it here. Wonderful staff.  Always went above and beyond.  If we ever drive through Palmdale without needing a room, we will probably stop in just to say hi to all of our staff friends.  Nice, newer, clean rooms. Comfy beds.Plenty of room in the bathroom areas. Yummy breakfast each day, Light dinner M-T.  Cookout every Wed. - extra yummy.   Free soft drinks/coffee all day. Warm fresh cookies most nights. Free WiFi,  FREE Laundry room with front loader washers! Very Pet Friendly, Nicely landscaped courtyard/pool view from the inner rooms. The only thing I didn't like was the wind.  Palmdale always seems windy and since the hotel doesn't control that it doesn't really seem fair to mention it.  Except to highlight the fact that I was able to swim in the pool any day (even when chilly) because they keep it nice and warm.  So here is how I wrap up our stay.  As I lay in the pool one afternoon, April was cooking my dinner on the grill (with all the wonderful cookout smells) and Milton is hanging out my 3rd story windows cleaning the outside of them for me (cause I'm a clean window freak).  I felt PAMPERED!  This is the only place we will stay when in Palmdale because it is "Our Only Palmdale Home"MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>PalmdaleMike, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded May 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2011</t>
+  </si>
+  <si>
+    <t>We have lived in hotels for the past year.  We were lucky enough to have lived at the Palmdale Staybridge twice in the past year, 6 weeks each time.  We loved it here. Wonderful staff.  Always went above and beyond.  If we ever drive through Palmdale without needing a room, we will probably stop in just to say hi to all of our staff friends.  Nice, newer, clean rooms. Comfy beds.Plenty of room in the bathroom areas. Yummy breakfast each day, Light dinner M-T.  Cookout every Wed. - extra yummy.   Free soft drinks/coffee all day. Warm fresh cookies most nights. Free WiFi,  FREE Laundry room with front loader washers! Very Pet Friendly, Nicely landscaped courtyard/pool view from the inner rooms. The only thing I didn't like was the wind.  Palmdale always seems windy and since the hotel doesn't control that it doesn't really seem fair to mention it.  Except to highlight the fact that I was able to swim in the pool any day (even when chilly) because they keep it nice and warm.  So here is how I wrap up our stay.  As I lay in the pool one afternoon, April was cooking my dinner on the grill (with all the wonderful cookout smells) and Milton is hanging out my 3rd story windows cleaning the outside of them for me (cause I'm a clean window freak).  I felt PAMPERED!  This is the only place we will stay when in...We have lived in hotels for the past year.  We were lucky enough to have lived at the Palmdale Staybridge twice in the past year, 6 weeks each time.  We loved it here. Wonderful staff.  Always went above and beyond.  If we ever drive through Palmdale without needing a room, we will probably stop in just to say hi to all of our staff friends.  Nice, newer, clean rooms. Comfy beds.Plenty of room in the bathroom areas. Yummy breakfast each day, Light dinner M-T.  Cookout every Wed. - extra yummy.   Free soft drinks/coffee all day. Warm fresh cookies most nights. Free WiFi,  FREE Laundry room with front loader washers! Very Pet Friendly, Nicely landscaped courtyard/pool view from the inner rooms. The only thing I didn't like was the wind.  Palmdale always seems windy and since the hotel doesn't control that it doesn't really seem fair to mention it.  Except to highlight the fact that I was able to swim in the pool any day (even when chilly) because they keep it nice and warm.  So here is how I wrap up our stay.  As I lay in the pool one afternoon, April was cooking my dinner on the grill (with all the wonderful cookout smells) and Milton is hanging out my 3rd story windows cleaning the outside of them for me (cause I'm a clean window freak).  I felt PAMPERED!  This is the only place we will stay when in Palmdale because it is "Our Only Palmdale Home"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r106534247-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>106534247</t>
+  </si>
+  <si>
+    <t>05/02/2011</t>
+  </si>
+  <si>
+    <t>Awesome customer service</t>
+  </si>
+  <si>
+    <t>The front desk person was great; we got there early and she had no problem checking us in when we got there, without making us feel we were putting them out.  The staff was very professional and personable.  The room was very nice and clean.  The complimentary breakfast was very good and suprisingly had a range of food items to appeal to the whole family.  The coffee was great!  We left my youngest daughter's special pillow and they worked with us to get it shipped back to us in a very timely manner.  Definitely, anytime we have a soccer touranment in Lancaster/Palmdale, this is the first hotel I will check for availability.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>PalmdaleMike, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded May 4, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2011</t>
+  </si>
+  <si>
+    <t>The front desk person was great; we got there early and she had no problem checking us in when we got there, without making us feel we were putting them out.  The staff was very professional and personable.  The room was very nice and clean.  The complimentary breakfast was very good and suprisingly had a range of food items to appeal to the whole family.  The coffee was great!  We left my youngest daughter's special pillow and they worked with us to get it shipped back to us in a very timely manner.  Definitely, anytime we have a soccer touranment in Lancaster/Palmdale, this is the first hotel I will check for availability.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r103176609-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>103176609</t>
+  </si>
+  <si>
+    <t>04/07/2011</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t>This hotel has it all, it's clean, new, comfortable, great staff, comfortable bed.  The only issue I have is that I like feather pillows but the pillows they have were fine.  They provide a delicious light dinner and beer/wine during the week and a good daily breakfast.  They have a big screen TV room, movies you can take to your room, a pool, jacuzzi, tennnis court, and the workout room had machines and a great assortment of free weights!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has it all, it's clean, new, comfortable, great staff, comfortable bed.  The only issue I have is that I like feather pillows but the pillows they have were fine.  They provide a delicious light dinner and beer/wine during the week and a good daily breakfast.  They have a big screen TV room, movies you can take to your room, a pool, jacuzzi, tennnis court, and the workout room had machines and a great assortment of free weights!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r96092940-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>96092940</t>
+  </si>
+  <si>
+    <t>02/09/2011</t>
+  </si>
+  <si>
+    <t>Unbelievable Stay</t>
+  </si>
+  <si>
+    <t>Staybridge Suites is a five star hotel at a three star price. By far the best  stay I have ever had. Any time I needed anything, all i had to do was ask and if they didn't have it, give them ten minutes and they would. The staff was excellant. Miss Dene was so helpful and friendly and Miss Zar put together a superbowl party just because we mentioned it. These folks here really take care of thier customers and are very sincere. The staff at the Staybridge care about thier customers.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r91744060-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>91744060</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel with Excellent staff and amenities</t>
+  </si>
+  <si>
+    <t>We had made this reservation on the same day as we checked in. Their rates were $100 less expensive than similar hotels in Burbank. We stayed a week. The staff were always responsive and firendly. The facilities were kept very clean and the up keep of the hotel is outstanding.It is located to the West Palmdale shopping area convenient to the interstate too.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r90626133-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>90626133</t>
+  </si>
+  <si>
+    <t>12/24/2010</t>
+  </si>
+  <si>
+    <t>pleasant stay</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Staff is great, very helpful.  Breakfast and Social Hour are great. Very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>PalmdaleMike, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded January 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2011</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Staff is great, very helpful.  Breakfast and Social Hour are great. Very clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r70844025-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>70844025</t>
+  </si>
+  <si>
+    <t>07/13/2010</t>
+  </si>
+  <si>
+    <t>almost like home</t>
+  </si>
+  <si>
+    <t>we stay here every year as a church group to go to a leadership conference in lancaster. Far from lancaster some but very comfortable and the staff is super friendly. kitchen is great and love the pillows. we stayed in the 2 room suites. i love the free breakfast and dinner, very convenient and free drinks all day except the juices, just during free meals on tues, wed and thurs nights you get free dinner and free breakfast daily. Free wi fi as well and they have a small theatre, nice pool and jacuzzi, very relaxing atmosphere and i'm pretty picky w hotels. new appliances in kitchen, flat screen tv, 1 in each room and dvd player in king bed room. there were 4 of us and did not feel crowded, still had some privacy.  hope this was helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>PalmdaleMike, General Manager at Staybridge Suites Palmdale, responded to this reviewResponded July 20, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2010</t>
+  </si>
+  <si>
+    <t>we stay here every year as a church group to go to a leadership conference in lancaster. Far from lancaster some but very comfortable and the staff is super friendly. kitchen is great and love the pillows. we stayed in the 2 room suites. i love the free breakfast and dinner, very convenient and free drinks all day except the juices, just during free meals on tues, wed and thurs nights you get free dinner and free breakfast daily. Free wi fi as well and they have a small theatre, nice pool and jacuzzi, very relaxing atmosphere and i'm pretty picky w hotels. new appliances in kitchen, flat screen tv, 1 in each room and dvd player in king bed room. there were 4 of us and did not feel crowded, still had some privacy.  hope this was helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r50594524-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>50594524</t>
+  </si>
+  <si>
+    <t>12/03/2009</t>
+  </si>
+  <si>
+    <t>What a lovely stay :)</t>
+  </si>
+  <si>
+    <t>Before making my reservation I had gone out and read other reviews for Staybridge Suites Palmdale. With most of them being rated as “good” I decided to give them a try. This was my first time staying at Staybridge Suites Palmdale and it was a lovely stay. The staff was friendly. The room was clean, and the presentation was immaculate.  The pictures on their site are just how the room looks. My husband and I were amazed that one of their amenities was a small movie theater. They have a 50inch (or could have been larger) LG flat screen T.V. and the large recliner chairs you normally see in the home theaters. They also offered large selections of movies to watch in the theater room or in your room.  All rooms come with DVD players. I had no complaints. My stay there was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>PalmdaleMike, Manager at Staybridge Suites Palmdale, responded to this reviewResponded June 9, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2010</t>
+  </si>
+  <si>
+    <t>Before making my reservation I had gone out and read other reviews for Staybridge Suites Palmdale. With most of them being rated as “good” I decided to give them a try. This was my first time staying at Staybridge Suites Palmdale and it was a lovely stay. The staff was friendly. The room was clean, and the presentation was immaculate.  The pictures on their site are just how the room looks. My husband and I were amazed that one of their amenities was a small movie theater. They have a 50inch (or could have been larger) LG flat screen T.V. and the large recliner chairs you normally see in the home theaters. They also offered large selections of movies to watch in the theater room or in your room.  All rooms come with DVD players. I had no complaints. My stay there was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r50244695-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>50244695</t>
+  </si>
+  <si>
+    <t>11/28/2009</t>
+  </si>
+  <si>
+    <t>No Room with Confirmed Reservation</t>
+  </si>
+  <si>
+    <t>Families beware - Reservations do not mean you have a room at this hotel!!  I had a confirmed 5 night stay at Staybridge Suites in Palmdale, CA.  Upon arrival at 5:30pm, I gave my confirmation number to the front desk associate.  After entering my reservation number in their system, she informed my that they had no rooms available.  Note the I was confirmed for late check-in.  Instead, I was directed to an older Holiday Inn next door (they two hotels are sister companies).  I thought this was an isolated case but the manager at the Holiday Inn had a list of about 10 people that were shifted over to the older hotel.  I was frustrated with the inconvenience.  However, I was not as bad off as the family with 2 small kids sitting in the parking lot trying to decide what to do.  With 2 small kids, the rooms at Holiday Inn would have been tight.I normally book suites so t hat I can save money by cooking in the room.  I mentioned this and their only compensation was a free dessert if I purchased dinner at the Holiday Inn.  I will not  be booking a room at Staybridge or Holiday Inn in Palmdale again.   Sorry I can not give any information on the Staybridge rooms.  I never got to see one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Families beware - Reservations do not mean you have a room at this hotel!!  I had a confirmed 5 night stay at Staybridge Suites in Palmdale, CA.  Upon arrival at 5:30pm, I gave my confirmation number to the front desk associate.  After entering my reservation number in their system, she informed my that they had no rooms available.  Note the I was confirmed for late check-in.  Instead, I was directed to an older Holiday Inn next door (they two hotels are sister companies).  I thought this was an isolated case but the manager at the Holiday Inn had a list of about 10 people that were shifted over to the older hotel.  I was frustrated with the inconvenience.  However, I was not as bad off as the family with 2 small kids sitting in the parking lot trying to decide what to do.  With 2 small kids, the rooms at Holiday Inn would have been tight.I normally book suites so t hat I can save money by cooking in the room.  I mentioned this and their only compensation was a free dessert if I purchased dinner at the Holiday Inn.  I will not  be booking a room at Staybridge or Holiday Inn in Palmdale again.   Sorry I can not give any information on the Staybridge rooms.  I never got to see one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r23504662-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>23504662</t>
+  </si>
+  <si>
+    <t>01/12/2009</t>
+  </si>
+  <si>
+    <t>New Everything!!</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel.  Wow what a great place.  The down stairs living room is better than home, because you don't have to clean up after yourself.  I felt the staff were very nice to me and the free breakfast was simple but delicious.  I didn't use the kitchen facilities but if you're inclined to stay long and save some money, it's a complete setup.  The TV's were great; yes 2 big flat screen TV's in my suite.  The bed is brand new and the whole place had that new house smell.  I loved it.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2504,5517 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s">
+        <v>210</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>193</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>193</v>
+      </c>
+      <c r="O31" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>193</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>259</v>
+      </c>
+      <c r="X35" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" t="s">
+        <v>264</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>216</v>
+      </c>
+      <c r="O36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>259</v>
+      </c>
+      <c r="X36" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>259</v>
+      </c>
+      <c r="X37" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>259</v>
+      </c>
+      <c r="X38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>259</v>
+      </c>
+      <c r="X39" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>293</v>
+      </c>
+      <c r="X40" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>296</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" t="s">
+        <v>298</v>
+      </c>
+      <c r="K41" t="s">
+        <v>299</v>
+      </c>
+      <c r="L41" t="s">
+        <v>300</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>301</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>302</v>
+      </c>
+      <c r="X41" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>301</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>310</v>
+      </c>
+      <c r="X42" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>314</v>
+      </c>
+      <c r="J43" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" t="s">
+        <v>317</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>310</v>
+      </c>
+      <c r="X43" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+      <c r="J44" t="s">
+        <v>321</v>
+      </c>
+      <c r="K44" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>279</v>
+      </c>
+      <c r="O44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>324</v>
+      </c>
+      <c r="X44" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>328</v>
+      </c>
+      <c r="J45" t="s">
+        <v>329</v>
+      </c>
+      <c r="K45" t="s">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s">
+        <v>331</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>279</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>324</v>
+      </c>
+      <c r="X45" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>334</v>
+      </c>
+      <c r="J46" t="s">
+        <v>335</v>
+      </c>
+      <c r="K46" t="s">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s">
+        <v>337</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>338</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>339</v>
+      </c>
+      <c r="X46" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>343</v>
+      </c>
+      <c r="J47" t="s">
+        <v>344</v>
+      </c>
+      <c r="K47" t="s">
+        <v>345</v>
+      </c>
+      <c r="L47" t="s">
+        <v>346</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O47" t="s">
+        <v>107</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>347</v>
+      </c>
+      <c r="X47" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>353</v>
+      </c>
+      <c r="L48" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>355</v>
+      </c>
+      <c r="O48" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>356</v>
+      </c>
+      <c r="X48" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>360</v>
+      </c>
+      <c r="J49" t="s">
+        <v>361</v>
+      </c>
+      <c r="K49" t="s">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s">
+        <v>363</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>364</v>
+      </c>
+      <c r="O49" t="s">
+        <v>139</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>347</v>
+      </c>
+      <c r="X49" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K50" t="s">
+        <v>369</v>
+      </c>
+      <c r="L50" t="s">
+        <v>370</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>372</v>
+      </c>
+      <c r="X50" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>376</v>
+      </c>
+      <c r="J51" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" t="s">
+        <v>378</v>
+      </c>
+      <c r="L51" t="s">
+        <v>379</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>380</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>381</v>
+      </c>
+      <c r="X51" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>385</v>
+      </c>
+      <c r="J52" t="s">
+        <v>386</v>
+      </c>
+      <c r="K52" t="s">
+        <v>387</v>
+      </c>
+      <c r="L52" t="s">
+        <v>388</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>381</v>
+      </c>
+      <c r="X52" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>391</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>392</v>
+      </c>
+      <c r="J53" t="s">
+        <v>393</v>
+      </c>
+      <c r="K53" t="s">
+        <v>394</v>
+      </c>
+      <c r="L53" t="s">
+        <v>395</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>396</v>
+      </c>
+      <c r="O53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>397</v>
+      </c>
+      <c r="X53" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" t="s">
+        <v>404</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>396</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>405</v>
+      </c>
+      <c r="X54" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>408</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>409</v>
+      </c>
+      <c r="J55" t="s">
+        <v>410</v>
+      </c>
+      <c r="K55" t="s">
+        <v>411</v>
+      </c>
+      <c r="L55" t="s">
+        <v>412</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>396</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>413</v>
+      </c>
+      <c r="X55" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>422</v>
+      </c>
+      <c r="X56" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>425</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>426</v>
+      </c>
+      <c r="J57" t="s">
+        <v>427</v>
+      </c>
+      <c r="K57" t="s">
+        <v>428</v>
+      </c>
+      <c r="L57" t="s">
+        <v>429</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>430</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>431</v>
+      </c>
+      <c r="X57" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>434</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>435</v>
+      </c>
+      <c r="J58" t="s">
+        <v>436</v>
+      </c>
+      <c r="K58" t="s">
+        <v>437</v>
+      </c>
+      <c r="L58" t="s">
+        <v>438</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>439</v>
+      </c>
+      <c r="X58" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J59" t="s">
+        <v>444</v>
+      </c>
+      <c r="K59" t="s">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>421</v>
+      </c>
+      <c r="O59" t="s">
+        <v>139</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>447</v>
+      </c>
+      <c r="X59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>450</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J60" t="s">
+        <v>452</v>
+      </c>
+      <c r="K60" t="s">
+        <v>453</v>
+      </c>
+      <c r="L60" t="s">
+        <v>454</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>421</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>459</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>463</v>
+      </c>
+      <c r="O61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>464</v>
+      </c>
+      <c r="X61" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>467</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>468</v>
+      </c>
+      <c r="J62" t="s">
+        <v>469</v>
+      </c>
+      <c r="K62" t="s">
+        <v>470</v>
+      </c>
+      <c r="L62" t="s">
+        <v>471</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>463</v>
+      </c>
+      <c r="O62" t="s">
+        <v>107</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>472</v>
+      </c>
+      <c r="X62" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>475</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>476</v>
+      </c>
+      <c r="J63" t="s">
+        <v>477</v>
+      </c>
+      <c r="K63" t="s">
+        <v>478</v>
+      </c>
+      <c r="L63" t="s">
+        <v>479</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>480</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>481</v>
+      </c>
+      <c r="X63" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>484</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>485</v>
+      </c>
+      <c r="J64" t="s">
+        <v>486</v>
+      </c>
+      <c r="K64" t="s">
+        <v>487</v>
+      </c>
+      <c r="L64" t="s">
+        <v>488</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>489</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>481</v>
+      </c>
+      <c r="X64" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>491</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>492</v>
+      </c>
+      <c r="J65" t="s">
+        <v>493</v>
+      </c>
+      <c r="K65" t="s">
+        <v>494</v>
+      </c>
+      <c r="L65" t="s">
+        <v>495</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>496</v>
+      </c>
+      <c r="O65" t="s">
+        <v>107</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>497</v>
+      </c>
+      <c r="X65" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s">
+        <v>503</v>
+      </c>
+      <c r="L66" t="s">
+        <v>504</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>505</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>497</v>
+      </c>
+      <c r="X66" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>507</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>508</v>
+      </c>
+      <c r="J67" t="s">
+        <v>509</v>
+      </c>
+      <c r="K67" t="s">
+        <v>510</v>
+      </c>
+      <c r="L67" t="s">
+        <v>511</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>505</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>497</v>
+      </c>
+      <c r="X67" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>513</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>514</v>
+      </c>
+      <c r="J68" t="s">
+        <v>515</v>
+      </c>
+      <c r="K68" t="s">
+        <v>516</v>
+      </c>
+      <c r="L68" t="s">
+        <v>517</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>518</v>
+      </c>
+      <c r="O68" t="s">
+        <v>107</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>519</v>
+      </c>
+      <c r="X68" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>522</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>523</v>
+      </c>
+      <c r="J69" t="s">
+        <v>524</v>
+      </c>
+      <c r="K69" t="s">
+        <v>525</v>
+      </c>
+      <c r="L69" t="s">
+        <v>526</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>489</v>
+      </c>
+      <c r="O69" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>527</v>
+      </c>
+      <c r="X69" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>530</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>531</v>
+      </c>
+      <c r="J70" t="s">
+        <v>532</v>
+      </c>
+      <c r="K70" t="s">
+        <v>533</v>
+      </c>
+      <c r="L70" t="s">
+        <v>534</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>535</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>536</v>
+      </c>
+      <c r="X70" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>540</v>
+      </c>
+      <c r="J71" t="s">
+        <v>541</v>
+      </c>
+      <c r="K71" t="s">
+        <v>542</v>
+      </c>
+      <c r="L71" t="s">
+        <v>543</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>544</v>
+      </c>
+      <c r="O71" t="s">
+        <v>107</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>545</v>
+      </c>
+      <c r="X71" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>549</v>
+      </c>
+      <c r="J72" t="s">
+        <v>550</v>
+      </c>
+      <c r="K72" t="s">
+        <v>551</v>
+      </c>
+      <c r="L72" t="s">
+        <v>552</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>545</v>
+      </c>
+      <c r="X72" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>554</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>555</v>
+      </c>
+      <c r="J73" t="s">
+        <v>556</v>
+      </c>
+      <c r="K73" t="s">
+        <v>557</v>
+      </c>
+      <c r="L73" t="s">
+        <v>558</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>545</v>
+      </c>
+      <c r="X73" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>560</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>561</v>
+      </c>
+      <c r="J74" t="s">
+        <v>562</v>
+      </c>
+      <c r="K74" t="s">
+        <v>563</v>
+      </c>
+      <c r="L74" t="s">
+        <v>564</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>565</v>
+      </c>
+      <c r="O74" t="s">
+        <v>107</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>545</v>
+      </c>
+      <c r="X74" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>567</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>568</v>
+      </c>
+      <c r="J75" t="s">
+        <v>569</v>
+      </c>
+      <c r="K75" t="s">
+        <v>570</v>
+      </c>
+      <c r="L75" t="s">
+        <v>571</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>572</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>545</v>
+      </c>
+      <c r="X75" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>574</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>575</v>
+      </c>
+      <c r="J76" t="s">
+        <v>576</v>
+      </c>
+      <c r="K76" t="s">
+        <v>577</v>
+      </c>
+      <c r="L76" t="s">
+        <v>578</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>580</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>581</v>
+      </c>
+      <c r="J77" t="s">
+        <v>582</v>
+      </c>
+      <c r="K77" t="s">
+        <v>583</v>
+      </c>
+      <c r="L77" t="s">
+        <v>584</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>585</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>586</v>
+      </c>
+      <c r="X77" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>589</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>590</v>
+      </c>
+      <c r="J78" t="s">
+        <v>591</v>
+      </c>
+      <c r="K78" t="s">
+        <v>592</v>
+      </c>
+      <c r="L78" t="s">
+        <v>593</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>594</v>
+      </c>
+      <c r="O78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>595</v>
+      </c>
+      <c r="X78" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>598</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>599</v>
+      </c>
+      <c r="J79" t="s">
+        <v>600</v>
+      </c>
+      <c r="K79" t="s">
+        <v>601</v>
+      </c>
+      <c r="L79" t="s">
+        <v>602</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>585</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>595</v>
+      </c>
+      <c r="X79" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>604</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>605</v>
+      </c>
+      <c r="J80" t="s">
+        <v>606</v>
+      </c>
+      <c r="K80" t="s">
+        <v>607</v>
+      </c>
+      <c r="L80" t="s">
+        <v>608</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>609</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>610</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>611</v>
+      </c>
+      <c r="J81" t="s">
+        <v>612</v>
+      </c>
+      <c r="K81" t="s">
+        <v>613</v>
+      </c>
+      <c r="L81" t="s">
+        <v>614</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>615</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>616</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>617</v>
+      </c>
+      <c r="J82" t="s">
+        <v>618</v>
+      </c>
+      <c r="K82" t="s">
+        <v>619</v>
+      </c>
+      <c r="L82" t="s">
+        <v>620</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>615</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>621</v>
+      </c>
+      <c r="X82" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>624</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>625</v>
+      </c>
+      <c r="J83" t="s">
+        <v>626</v>
+      </c>
+      <c r="K83" t="s">
+        <v>627</v>
+      </c>
+      <c r="L83" t="s">
+        <v>628</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>629</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>630</v>
+      </c>
+      <c r="X83" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>633</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>634</v>
+      </c>
+      <c r="J84" t="s">
+        <v>635</v>
+      </c>
+      <c r="K84" t="s">
+        <v>636</v>
+      </c>
+      <c r="L84" t="s">
+        <v>637</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>638</v>
+      </c>
+      <c r="O84" t="s">
+        <v>107</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>639</v>
+      </c>
+      <c r="X84" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>643</v>
+      </c>
+      <c r="J85" t="s">
+        <v>644</v>
+      </c>
+      <c r="K85" t="s">
+        <v>645</v>
+      </c>
+      <c r="L85" t="s">
+        <v>646</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>638</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>639</v>
+      </c>
+      <c r="X85" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>56976</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>648</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>649</v>
+      </c>
+      <c r="J86" t="s">
+        <v>650</v>
+      </c>
+      <c r="K86" t="s">
+        <v>651</v>
+      </c>
+      <c r="L86" t="s">
+        <v>652</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>653</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_721.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_721.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="738">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>SeasonedTravelerMike</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Excellent friendly staff.  Very helpful and accomodating.  Stayed here for 1 1/2 months. Complimentary weekday breakfast  and light dinner available 3 days. Laundry is free just bring detergent.  Excellent choice.More</t>
   </si>
   <si>
+    <t>Chad50merc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r547596336-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r545821636-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>My husband and I have been staying here for the past three weeks for business and we couldn't be more pleased with all the Staybridge Suites Palmdale has to offer.  It is very apparent that the company values their employees and it shows in the quality of service offered here.  Everyone we have encountered has been very pleasant and professional.  Each person has done everything possible to make our stay comfortable and immediately address any issues we have had.  We stayed in a one room all inclusive suite which is very comfortable and includes a full kitchenette.  The style is up to date and the bed is very comfortable.  The location is very close to shopping and restaurants as well as medical facilities, everything one might need, however the area is secluded and quiet.  Staybridge offers daily shuttle service at no extra charge to the mall, shopping and restaurant areas which is extremely nice and helpful.  Included in the price is a daily hot breakfast and hot meal 5 nights a week, free wifi and cable as well as a laundry room for guests with five washers and dryers - no need to get quarters! Yay! Truly all our needs are met here.  All that being said, my favorite part of our stay has been the extremely pleasant staff especially, Eric, Crystal, and Eddie.  Thanks to everyone for making our stay great!More</t>
   </si>
   <si>
+    <t>Serge K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r506489469-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>My wife stayed at this hotel for her business trip July20-21. While overall the room and building are ok, normal for the stars. There was an alarming  event that cast a shadow on the whole experience.She left her ultrasonic rechargeable toothbrush in the room, should not be a problem, right? Everyone has things left behind to get them returned by friendly hotel staff. NOT in Staybridge Suites Palmdale.She called to report it in about the same day and left her number to call back. Did not hear from them, called again next day. They said they got her number wrong, or so they told us when we called them the next day to check on the item. Two days passed  - not a word. We call again, they tell stories of "not being able to find the cleaning shift supervisor". Called again - still no word from supervisor, and they couldn't find it in "lost and found" bins.Called a week later - still "nobody saw it. and our policy is to never take things we find"... Suggested they produce a "miracle" and find it to avoid having this experience posted. However  hopes are low... The desk clerk who answered was doing so begrudgingly.. So, posting it here to warn the fellow travelers. Someone needs to be fired for taking customer's belongings..Will post an update if anything happens.More</t>
   </si>
   <si>
+    <t>Sven Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r504225216-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>trichmond20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r492591268-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>So were do I start. My sister and I work at a hotel in San Francisco so I know about the hotel business. When we first arrived we here greeted by a young lady at the front desk with long beautiful hair and a great smile, also by a African American Gentlemen he seemed as if he worked as the Maintenance person but they were both so sweet and kind to my family. My family and I were in town for a funeral so we all had a lot going on, but to be greeted and treated how they treated us made all of our spirits lifted. Then they gave us a Complimentary Upgrade to a 2 bed room suit to make sure we all were confertable. As we made our way to the room we noticed a sign outside our door that said "We are glad to have you here". That was such a great touch. The beds were great the room was big and we had 2 bathrooms and a kitchen stove as well with made things so convenient because we did have 5 children all under 5 years old. They also had a drink machien with all you can drink sode and water and tea they also had a cute little convenient store and it was super cheap.They had a pool, Hot tub, and Movie theater, YES I SAID MOVIE THEATER IN THE HOTEL FOR DONATION. I...So were do I start. My sister and I work at a hotel in San Francisco so I know about the hotel business. When we first arrived we here greeted by a young lady at the front desk with long beautiful hair and a great smile, also by a African American Gentlemen he seemed as if he worked as the Maintenance person but they were both so sweet and kind to my family. My family and I were in town for a funeral so we all had a lot going on, but to be greeted and treated how they treated us made all of our spirits lifted. Then they gave us a Complimentary Upgrade to a 2 bed room suit to make sure we all were confertable. As we made our way to the room we noticed a sign outside our door that said "We are glad to have you here". That was such a great touch. The beds were great the room was big and we had 2 bathrooms and a kitchen stove as well with made things so convenient because we did have 5 children all under 5 years old. They also had a drink machien with all you can drink sode and water and tea they also had a cute little convenient store and it was super cheap.They had a pool, Hot tub, and Movie theater, YES I SAID MOVIE THEATER IN THE HOTEL FOR DONATION. I would definatly stay here again ANY TIME the front was great keep up the great work. Keep the Hospitality alive.More</t>
   </si>
   <si>
+    <t>TracyAWillis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r467111817-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>While the overall state was nice, the areas that need improvement are: 1) A quieter A/C unit. It was so loud that I had to turn it off when it was time for sleep. The downside is that I would get too warm during the night, which caused me wake up intermittently. Therefore I did not get a solid nights sleep the three nights I was there.  2)  Offer a larger television. The size of the television, which appeared to be a 32" screen, is fine for a smaller space but not for a hotel suite. Especially when the head of the bed is at least 15 feet away. 3)  Offer a television with better sound quality. In combination with the loud air conditioning unit, it was a total strain to hear many of the channels.  No matter how high the volume was increased, the sound did not change.  4)  Provide better pillow options. All four pillows were extremely soft. So two had to be rolled together to provide a more firm head support.  If too soft and two medium or firm pillows were provided, it would make available choices  for a better nights rest.More</t>
   </si>
   <si>
+    <t>Pat H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r459788308-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Mason K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r457728336-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>I've been staying at the hotel for a few months now (extended business stay) and so far I've been pretty happy with my time here. The rooms are well appointed, clean, and spacious. The staff is professional, kind, and very accommodating. And the free breakfast and dinner (dinner Mon.-Thurs.) are good benefits that make a long stay more bearable (and the free coffee is great for someone who is always in the mood for a cup).Wi-Fi is free, but it's consistency is pretty terrible. It's decent when it does work, but it drops out quite frequently and can make something like Netflix or online gaming very difficult. This is probably my biggest frustration with the hotel, but on the whole it doesn't do much to detract from my experience.Recommended for long business or family trips if you're going to be in Palmdale for a while.More</t>
   </si>
   <si>
+    <t>shaun23twenty2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r440224981-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>My Wife and I stayed at this Staybridge during our first time visiting LA. From the time that we arrived all the way up to the time of our departure the staff have been nothing but exceptional in guest service. Eddie was very good with providing us tremendous guest service and he was very knowledgeable of the surrounding areas including LA...The Staff was very accommodating, warm, and friendly. The General Manager was approachable and nice and pleasant to talk to...We had so much of a good time, we didn't want to leave.The property was clean and classy, the rooms were spacious and clean, Te Socials were fun, the food was great and This was one of the best hotel experience I've had in all of my years of traveling and staying at hotels. We loved it.More</t>
   </si>
   <si>
+    <t>Dan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r436796698-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Barbie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r431669217-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>Business stay.  Easy access to main Hwy. Situated close to Palmdale Regional Hosp.  Shopping centers and restaurants or fast food just couple miles away.  Exterior well kept.  Interior warm and inviting.  Front desk crew day and night shifts always pleasant and helpful. Room interior basic hotel decor, bedroom, bath with living room and kitchen. Very Clean!!!! Kitchen fully equipped for extended stay visit. Bed was comfortable, linen soft and pillows plush! I do have a suggestion to hotel to replace those towels!! Although clean.....they are rough!!! They did offer breakfast and dinner on certain nights but I didn't try any this visit. I really have to compliment the housekeeping for this visit.  The room was perfect on admission and what also impressed me was somehow they managed to get in and tidy up every day after I left for work.  I work both day and night shifts and don't keep regular schedule so often I can be passed by with housekeeping. Great stay, I'll be a return customer.More</t>
   </si>
   <si>
+    <t>Bjam F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r422621000-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>martinduane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r416855083-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>My stay at this hotel was beyond extraordinary... it was the best stay I've experienced at any hotel.  My room was fresh and clean.  The breakfast team made my morning's worth waking up to. The front desk staff went out of their way to make me feel special. EVERYONE at this hotel greeted me. I asked for the Manager and Debbie greeted me with a warm and friendly smile... With managers like Debbie... Its evident why this hotel rocks!  I needed to get to Walmart and the shuttle took me there and back.  This has become my new home away from home when I visit the area on business.  The staff treats me like family.  Why go anywhere else!!More</t>
   </si>
   <si>
+    <t>Ryan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r386795042-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -477,6 +522,9 @@
     <t>I've lived in different hotels over the past year and a half traveling for work and this is by far the best hotel I've stayed at. The food, people and all-around atmosphere is just phenominal. Leah, Eddie, Edward, Laura, Alyssa and everyone there were just fantastic, always making sure I had everything I could ever ask for from a hotel staff and more. They went well out of their way to help me when I needed to extend my stay and they were sold out due to me waiting until the last minute to extend. Somehow they magically found me a room and I didn't have to move. The whole hotel is very clean, new, and the food is always great, much better than other Staybridge Suites that I have stayed at. If you get the chance to stay here, I highly suggest you do so.More</t>
   </si>
   <si>
+    <t>shopcoffee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r379815341-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>MamaD67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r371285588-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -516,6 +567,9 @@
     <t>It will be difficult to explain how wonderful our 44 day stay was here!   Most importantly we did not have one negative experience with any of the employees!   They are ALL absolutely wonderful!   Each and everyone will work to make your stay as pleasurable as possible.   The rooms compared to others are spacious and nice.   We were displaced after selling our home earlier than we wanted and they took in 2 adults, 2 teenagers and 3 dogs!  Yes and they still somehow made staying in a hotel a positive experience.   The free breakfast every morning are really good!  Free dinner and happy hour every Monday through Thursday!   It is true and there is not a catch!    Seriously, in 44 days there is not 1 thing I can say I would change!  Thank you Staybridge we will miss each and everyone of you!More</t>
   </si>
   <si>
+    <t>Alan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r369301269-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -531,6 +585,9 @@
     <t>My room was very spacious and clean. The kitchen was especially nice for preparing meals although with the free dinners Monday-Thursday, this wasn't neccessary. The property is well kept and the pool area was a very nice place to relax after work, It was also very close to restaurants and shopping areas. While I didn't take advantage of it, the hotel offers a free shuttle to local shopping.</t>
   </si>
   <si>
+    <t>Malaysian92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r363778537-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -549,6 +606,9 @@
     <t>The Staybridge Suites is a hotel with great facilities. From the moment I made my booking till the end of our stay we received great service from all members of the staff team. It was pleasant to be greeted by friendly and cheerful staff at the reception . Made us feel really welcome. Isella at reception handled my reservation and was very helpful in getting me a good rate. The room facilities are good and we slept well in the comfy bed. It was lovely to have proper crockery and glasses. What sets this apart from other chain hotels is the buffet breakfast. It is the best that we have encountered . There were different hot items everyday, ranging from corn beef hash to breakfast burritos. Again there were proper China plates/bowls and metal cutlery, unlike other inns/ hotels where disposable plates and plastic cutlery are the norm. There is even complimentary dinner during weekdays. The free laundry and free shuttle to the surrounding shopping areas are also a bonus. All in all a first rate hotel.More</t>
   </si>
   <si>
+    <t>Globecommuters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r363076344-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -564,6 +624,9 @@
     <t>Just like the other reviews mentioned, this is truly a place to stay and enjoy! Decent price, Welcome smiles at check-in, nice, clean spacious rooms, free DVDs for families, nice beds, hearty breakfast in the morning - there is not much you can ask for! Nice touch in terms of front desk staff asking to confirm all is good in the room about an hour after check-in and also offering detailed recommendations for great restaurants nearby! I just wish most hotel staff got trained here!</t>
   </si>
   <si>
+    <t>Edith_2016_4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r362615934-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>My husband travels frequently to Palmdale for business and he prefers to stay at the Staybridge.  I come with him when my schedule permits and I am always satisfied with the hotel and impressed with the staff.  This week Leah was extra kind/helpful with providing us with an early check-in (Thank you!) and Eddy was helpful with the check-out.  Edward, Chris, Isella, and Pia were also friendly and helpful.  Whenever I asked for something to be fixed/addressed it was right away. The rooms are comfortable and pleasant.  I appreciate the kitchen with the full sized refrigerator, microwave, stovetop, and dishwasher - it helps to make it more like a nice place to live than just a hotel room.  The included breakfast is very good with fresh fruit, hot oatmeal, and hot dishes as well as cold cereals, breads, and yogurt.  Monday - Thursday there is also a evening reception/dinner that is available to guest which is nice after a long day.The location is great, it is convenient to the freeway and less than a mile from food stores (Trader Joes and Smart &amp; Final) and number of other stories.  Thanks again for a wonderful stay.  We will be back again.More</t>
   </si>
   <si>
+    <t>naysa71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r359183775-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t>My family and I were displaced from our home for almost three weeks due to water damage.  The insurance company set us up in Staybridge Suites and thank goodness they did!  This was a great place to have to spend a few weeks.  The staff was amazing!  Everyone in the front desk: Leah, Edward and Chris.  I may have forgotten someone, but the entire front desk was friendly, pleasant and helpful.  Adriana helped serve breakfast and dinner (both were free)!  She was delightful!  Berta, Esther, Marsha and Susana were in housekeeping and they were phenomenal! From the free breakfast every morning to the free dinner 4 nights a week, this place can't be beat!  If you are in town for a day, week, month or year, this is the place for you! Thank you!More</t>
   </si>
   <si>
+    <t>Rich J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r353982413-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -621,6 +690,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r352757797-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -636,6 +708,9 @@
     <t>Leah and kris made the stay completely amazing!! The free drinks and dinner Monday thru Thursday are great, but walking in to Leah's smile and welcome made our stay above board!!! I had a problem with my room and they accommodated a hasty repair and a follow up to my enjoyment was made throughout my stay. I'd extend my approve to Anyone who asked!! Thanks to the beautiful personalities and especially Leah who made my stay above expectations !!!</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r352422848-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -651,6 +726,9 @@
     <t>This place is awesome, from the maintenance staff to front desk and administration, you can't beat this place for friendly people.The food is good, the pool and court grounds are amazing and the rooms are big clean and never any problems</t>
   </si>
   <si>
+    <t>LydiaMichaelMaine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r352008967-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -672,6 +750,9 @@
     <t>We were relocated to Staybridge due to home damage. From day one we have felt very comfortable and welcomed. We love that we are able to have our dog with us. The hotel associates have been very friendly and helpful. Chris &amp; Kevin in Maintenance and Leah &amp; Edward at the Front Desk have gone above &amp; beyond during our stay, keeping an eye on our son while he plays basketball which we feel very appreciative for. And if we have ever had a question, an issue or concern, they never hesitated to assist us. Just their pleasant smiles when we walk in makes our stay feel like home away from home.More</t>
   </si>
   <si>
+    <t>Al  H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r350962197-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -690,6 +771,9 @@
     <t>I stayed at the staybridge hotel in Palmdale from February 2015 to mid February 2016. The entire staff was great rooms were clean food was good Leah Michelle Chris and Eddie at the front desk were always there to check me in and always very friendly the breakfast ladies Adriana and Giselle we're always very nice and pleasant to talk to in the morning, they cooked great . The hotel maintenance crew Kris Kevin and Martine keep the hotel in tip top condition and were always there to give us rides in the hotel shuttle. Staying at the staybridge sweets in Palmdale made my time out of town tolerable I would recommend staying there too anyone and everyone I know thank youMore</t>
   </si>
   <si>
+    <t>A E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349558801-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -714,6 +798,9 @@
     <t>Very small breakfast area. Room is dark. Not well ventilated. The room design is inefficient and not practical. Carpet might need to be replaced. I don't recommend it and It was not worth the money spent.More</t>
   </si>
   <si>
+    <t>worldtraveler00134</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349552035-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -726,6 +813,9 @@
     <t>My husband and I decided to come to Cali for the weekend, and staying at this location was simply a pleasure.  The rooms were clean and modern, the ambience of the hotel was so inviting, and the staff, especially the manger Debbie, was so friendly and helpful.  She personally made sure that we had everything that we needed to be comfortable.  We loved starting out our day with the hot complimentary breakfast, and having the shuttle pick us up was super convenient.  Definitely coming back here on our next getaway!</t>
   </si>
   <si>
+    <t>Jose W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349546885-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -738,6 +828,9 @@
     <t>I had to stay in Cali for a week due to my brother's graduation and it was a very restful experience. I have never been in a heated pool before and the theater was a nice touch. The staff was super helpful and patient. I never felt rushed by the staff nor treated unfairly. My stay here was definitely worth it. I would recommend this too friends and colleagues.</t>
   </si>
   <si>
+    <t>caligirlloveswine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349528327-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -750,6 +843,9 @@
     <t xml:space="preserve">My boyfriend and I stopped in Palmdale on our way back to Los Angeles from a roadtrip. We had never stayed at a Staybridge before but we definitely will again!! Staff was great.. So friendly!! Loved the breakfast and the little store saved us from having to go out to get snacks! Will definitely stay at more Staybridges when we travel thanks to the great experience at this one. </t>
   </si>
   <si>
+    <t>Sarah J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349348692-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -762,6 +858,9 @@
     <t>The rooms were clean, spacious and beautiful.  The staff here were excellent!  Everyone I cam in contact with was smiling, cheerful and friendly.  We enjoyed the delicious free buffet breakfast.  Our kids loved the heated pool too. We will definitely be returning.</t>
   </si>
   <si>
+    <t>LM522016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r349160560-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -777,6 +876,9 @@
     <t>After several years of travel between San Francisco and Palmdale, this is now my "go to" hotel. I like the room, the kitchenette with full fridge (to keep my drinks cold), the free breakfast, and the friendly staff at the desk and in the dining room. Yesterday, the general manager Debbie helped me get a revised bill for my December stay last year - my company travel auditors found an error - and was very nice about it.</t>
   </si>
   <si>
+    <t>anniem2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r334687762-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -804,6 +906,9 @@
     <t>I had a wonderful stay at the staybridge! From the excellent customer service of the front desk to the maintenance. Anyone I came across was friendly and beyond helpful to any of my needs. The room was clean and met all of my expectations. Each morning breakfast was different. The movie theater was an awesome plus and traveling with her baby it was very nice to be able to do FREE laundry. Anytime I'm in the area I WILL be staying here!!! Thank you for a wonderful stay!More</t>
   </si>
   <si>
+    <t>Mariah C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r323640227-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -822,6 +927,9 @@
     <t>The the staff is one of a kind after a deth my family had a forn now we got kiked out of my home and my famliy stade at the staybridge suites and we had a samile. Hot free barkefast every day  on some days dinner.More</t>
   </si>
   <si>
+    <t>jmcdmc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r322438430-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -840,6 +948,9 @@
     <t>About a month ago my wife and I spent a week at the Staybridge Suites.We had never strayed at an extended stay hotel before and were pleasantly surprised.  The staff was very attentive, Michelle and Leah at the front desk are the only names I remember, but they were all great.  Engineering, housekeeping,  food servers were all excellent.  Everyone made sure you felt at home.  I am in a wheelchair and they had the best accessible room I have ever stayed in.  We highly recommend the Staybridge suites.More</t>
   </si>
   <si>
+    <t>nicole w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r315676963-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -861,6 +972,9 @@
     <t>One thing about come to this hotel have bless me to see people around the world and to get to meet some of the best helpful polite staff in a hotel i love everone of them are just like famly Kevin, Carlos, kris, Martin, Orlando, Berta, Maria, Olga, Susana, Marsha, Esther, Leticia, Michelle C. Eddie H. Eddie M, Leah,  Edward, Chris,  Jisela, Adriana, Irma, YOU GUYS ROCKMore</t>
   </si>
   <si>
+    <t>Ann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r314849593-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -879,6 +993,9 @@
     <t>Would like to emphasize what a great - helpful - polite staff the Staybridge currently employees - Laticia cleaned my room outside her schedule ***KUDOS Jisela Giron (Kitchen) friendly smile and so accommodating to everyone.  I would just like to say this has made my stay wonderful!!!! THANK YOU ALL!! More</t>
   </si>
   <si>
+    <t>Mark C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r314062479-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -906,6 +1023,9 @@
     <t>I stayed here 3 years ago it's a nice hotel polite staff and lovely breakfast. The only thing I didn't like about it was it allows pets to stay in the rooms the first room they gave me smelt of pet Oder and the carpet was stained I told them I cannot say in this room due to the smell of it so they moved me to another room a 1 bedroom suite on the ground floor. Other than that a nice place to stay.More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r306517818-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -933,6 +1053,9 @@
     <t>First off, a BIG THANK YOU to this entire staff, starting with Michelle Murillo who was our contact for coordinating the rooms and rates months in advance. Throughout our entire hotel search in the area as well as other areas in Southern California, Michelle was by far the most professional and genuine of all the sales managers we interacted with. When we arrived, we were greeted by Cassandra who took care of all our needs getting into the rooms. I had the pleasure of meeting Debra the GM along with everyone else at the front desk. It was a refreshing experience to say the least. The rooms and beds were amazing. This will be a destination we will always look to stay when filming in the area. On behalf of the cast and crew for A Young Man's Future, we thank you for your kindness, professionalism and care.More</t>
   </si>
   <si>
+    <t>Randall M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r299477694-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -957,6 +1080,9 @@
     <t>The rooms give you a since of being at your own home feeling!   Very comfortable! You have many different options of room styles......from suites to separate bedroom privacy..........So if you travel alone or with your family.....They meet all of your needs! And the offer a delicious FREE breakfast AND Dinner!.........Amazing!................I found me a new home away from home that's for sure!More</t>
   </si>
   <si>
+    <t>Tricia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r298893043-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -975,6 +1101,9 @@
     <t>On Yelp reviewing and calling hotel after hotel finally called Staybridge Suites and spoke with Michelle,  absolute delight!  My husband and I came out for business and both agreed on making this our hotel.  Very clean,  great breakfast buffet free (none of the other hotel have this or you pay $10 more),  and 5:30-7:30pm free beer and wine with great food,  different every evening.More</t>
   </si>
   <si>
+    <t>Kern C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r282909888-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -999,6 +1128,9 @@
     <t>We have stayed here many times, and have always enjoyed our stay. This time was different. The room was not spotless as we have come to expect. For example, there was dried mucus on the ceiling, dried blood on the bathroom door, a dirty cup in the cabinet, and the carpet is stained beyond description. Sadly, we were stuck there for 4 days. Housekeeping was poor. The front desk was usually vacant unless Terrence was on duty. Everyone else would be in the back room, on their phones I guess, and would come out only when beckoned. Very unprofessional. At   11:00 Saturday morning, I went to use the pool, and it was closed. Really? That's the only thing going for them and it was closed for treatment on a Saturday morning? Terrence was the only employee who seemed to care, but he needs some help in a hurry!More</t>
   </si>
   <si>
+    <t>OKESCHA W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r281429582-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1017,6 +1149,9 @@
     <t>My husband was staying at Staybridge for over 2 months on business and he raved about this hotel. Myself and my 4 children came down to visit for a week, and we were absolutely blown away by the hospitality we were shown!The General Manager was so professional, yet personable and the entire staff was EXCELLENT! The rooms were super clean and spacious, the grounds were flawless, the food was delicious. This hotel FAR exceeded our expectations! You could tell that the staff loved their jobs,and went above and beyond to make everyone's stay comfortable and treated their guests like family.We have not 1 single complaint about this hotel or our stay here. We have stayed at many other "higher end" hotels, and this Staybridge Suites has them all beat by far. Thank you to everyone from the General Manager to the front desk staff, to the housekeeping and maintenance staff, to the shuttle driver to the food service staff for making our stay here PERFECT! This truly felt like a home away from home, but better. Lol. The next time we visit Palmdale, we will DEFINITELY be staying at Staybridge Suites Palmdale.More</t>
   </si>
   <si>
+    <t>Horst G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r272887449-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1044,6 +1179,9 @@
     <t>What makes this place really special is the staff. From maintanace over kitchen, housekeeping to front desk, they are just the best. ncluded dinner creates a nice atmosphere. Stayed here forever and would come back any time.More</t>
   </si>
   <si>
+    <t>Tera Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r247940280-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1068,6 +1206,9 @@
     <t>We came upon the Staybridge Suites while trying to find an affordable place to stay for the Rosebowl. It exceeded our expectations -- free breakfast, free dinner, very clean, very friendly staff at a great rate!! Would definitely stay again!!More</t>
   </si>
   <si>
+    <t>GA Jule</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r242031088-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1095,6 +1236,9 @@
     <t>We stayed for 4 nights during Thanksgiving week at the Staybridge while visiting family in the area. We got a one bedroom suite with a pull out sofa. First of all the staff was amazing, every single person we saw in the halls or on the property working at Staybridge greeted us in a genuinely friendly manner.  The hotel itself had a nice layout with the great room in the center where breakfast was served daily. Buffet was good for this type of breakfast, each day something on the hot bar changed out: scrambled eggs, breakfast burritos, Eggs and cheese, Biscuits and Gravy with either Ham, Bacon or Sausage.  There were plenty of selections of cold items too - yogurt, fruit - fresh fruit that tasted great, granola, breads, cold cereal. The waffle maker was a huge hit with our daughter. We would go early and the oatmeal was a little thinner than I prefer, but hey, it had some great toppings. We did NOT eat any of the dinners offered as we were either out with family or it was not offered that night. Its a nice option for a traveling family and the area of the buffet we always found clean. Our room was on the top floor and we heard nothing from neighbors or outside. The king bed was comfortable.  The fold out sofa mattress was fine, not too thin and my daughter loved her "room". The...We stayed for 4 nights during Thanksgiving week at the Staybridge while visiting family in the area. We got a one bedroom suite with a pull out sofa. First of all the staff was amazing, every single person we saw in the halls or on the property working at Staybridge greeted us in a genuinely friendly manner.  The hotel itself had a nice layout with the great room in the center where breakfast was served daily. Buffet was good for this type of breakfast, each day something on the hot bar changed out: scrambled eggs, breakfast burritos, Eggs and cheese, Biscuits and Gravy with either Ham, Bacon or Sausage.  There were plenty of selections of cold items too - yogurt, fruit - fresh fruit that tasted great, granola, breads, cold cereal. The waffle maker was a huge hit with our daughter. We would go early and the oatmeal was a little thinner than I prefer, but hey, it had some great toppings. We did NOT eat any of the dinners offered as we were either out with family or it was not offered that night. Its a nice option for a traveling family and the area of the buffet we always found clean. Our room was on the top floor and we heard nothing from neighbors or outside. The king bed was comfortable.  The fold out sofa mattress was fine, not too thin and my daughter loved her "room". The bathroom had nice water pressure in the shower and the spa like towels were soft not scratchy.  Parking was free and the hotel is conveniently located down the street from the Mall if you want to go shopping or go to a restaurant - lots around the mall.  The outdoor area and grounds were clean.  The workout room had 2 treadmills never in use while we were there, though i used one and it was plenty spacious.  A nice touch was the theater room, bring your own movies and popcorn and snacks to the projector and 13 theater chairs. Next time for sure. I was expecting the Staybridge to be adequate as a business class hotel, but our family was pleasantly surprised it was above average for this category. We had plenty of room , more than enough.  The closed and laundry basket were nice as was FREE use of Washer Dryers on the property, though bring your own detergent.  If I had to complaint its minor: when the heat kicked on, it was loud, not loud enough to wake me up, but I had to adjust the TV volume.  Free Wifi and paper nice touch too and glad we could watch our HBO shows. Thanks Staybridge for a great stay!More</t>
   </si>
   <si>
+    <t>lminne30</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r235963547-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1116,6 +1260,9 @@
     <t>Great little hotel, clean, well maintained and pet friendly. I really liked magnets that you posted outside door to let staff know there was pet in room. Made me feel safe that my pet wouldn't accidentally escape.  Both myself and my dog enjoyed our stay.More</t>
   </si>
   <si>
+    <t>Chris C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r216423954-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1143,6 +1290,9 @@
     <t>I was there three weeks ago for Business. The rooms, are very clean and big. The Service are very good. I had my Birthday during the stay, and i bekame a Birthday cake from the hotel, thank you very much. More</t>
   </si>
   <si>
+    <t>Al G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r213361943-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1191,6 +1341,9 @@
     <t>This place is Amazing. The hotel staff Teana, Brendon,  Culleen, Isabella and the rest are amazing. They always speak to each guest and remember your name. I have stayed with them for almost a year working and I miss the hotel when I am not there. If there is ever a concern or a need they get on it immediately. I would highly recommend the Palmdale Staybridge to anyone.More</t>
   </si>
   <si>
+    <t>AdrianP33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r198461025-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1218,6 +1371,9 @@
     <t>Stayed here while on a very long road trip. In the car for 8 hours with my husband and 1 year old, made for a great place to relax in. We were very impressed when we walked in the room. I liked everything about what this hotel has to offer, 1 bedroom suite, with a kitchenette, laundry facility, nice ground to stretch out, we were very please. Everything was clean and of nice quality. I would only give this place 1 complaint in that we couldn't get milk for our 1 year old at their little store. The staff at the desk was friendly but had no interest in meeting our needs. We know they had milk there, kind of a silly thing to complain about but the previous place we were at offered us milk so we didn't have to go out and that's where we got the idea to ask. Also the staff appeared to have friends/ guests/ or co workers visiting them as in just hanging out at the front desk for hours. That certainly won't stop us from staying again as they were always friendly to us. One last thing, the room we stayed in had some food under the coffee table ( and on the curtains) that was not vacuumed up and I had to clean it quickly before my toddler found it.More</t>
   </si>
   <si>
+    <t>SomebodyNoz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r197665285-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1242,6 +1398,9 @@
     <t>I gave a negative rating and review last month given the bed was too soft and staff at the desk could offer me no improvement.  Just want to say, after posting my concerns on trip advisor, I received a very nice response from their management trying to make things right.While I probably would not stay at this chain again for the noted reason.  If you like softer beds I would recommend the place.More</t>
   </si>
   <si>
+    <t>Pink_Azalea429</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r197261186-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1266,6 +1425,9 @@
     <t>I travel a lot for business and have stayed in more mid-range hotels than I care to remember, but I have to say the Staybridge Suites Palmdale is really one of the best.  The management must be doing something right, because all the the staff I interacted with were friendly and top-notch.  The amenities were exactly what I needed--coffee, healthy breakfast, LAUNDRY (free!), fitness center, a place for my team to work together, and a clean, comfortable room.  Everything worked, and if it didn't maintenance fixed it (they FOLLOWED UP--it's like a miracle).The thing that puts this place over the top is the complimentary light dinner in the evening that always included salad and fruit.  The food is good and the dining area pleasant, which is sooo great after a long day--especially when there is more work to do after dinner.Highly recommended!More</t>
   </si>
   <si>
+    <t>koreageek101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r175579057-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1293,6 +1455,9 @@
     <t>Me and my family went we had an excellent time the pool was kinda small but it was a really nice one of the best hotel breakfast I've ever had, their soap smelt nice,comfortable beds and small kitchenette  that had dishes and utensils,great service clean and polite.More</t>
   </si>
   <si>
+    <t>Wayne W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r174203037-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1320,6 +1485,9 @@
     <t>WOW, what a super week.  To sum it up, the Staybridge Suites in Palmdale CA was simply Outstanding!  What really made my stay great were the positive and friendly attitudes of all the employees.  Everyone was very helpful and always greeted me with a smile.  The room was very clean with a good bed and a shower that worked perfectly.  The breakfast was a great way to start the day and the evening social, that included food and drink, was a wonderful way to finish the day.  I didn’t use the pool/Jacuzzi but they looked nice.  The Fitness Center was larger than normal and had free weights and bench, a weight machine along with the normal cardio equipment.  The location was close to the mall and many good eating establishments, but what I really enjoyed, was the safe location that allow for a daily run on a flat 1.1 mile loop just outside the door ... it was a fantastic way to start each day.  I will stay here on my next business or social trip to Palmdale CA.More</t>
   </si>
   <si>
+    <t>TaliaRobbins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r172360783-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1342,6 +1510,9 @@
   </si>
   <si>
     <t>My husband came to work in Palmdale last June and I was with him. We stayed for 2 weeks.The staff was really friendly, they made you feel like at home. Gloria was the lady working in tge breakfast area and was so nice and professional and I had to mention that her cooking was really good. One good thing I have to mention about the breakfast is that they have a really good variety of food. You dont eat the same every day. The hotel offers some kind of dinner everyday except for weekends and fridays. They give you the menu of the month so you know what they are serving during your stay. The food was deliciuos, they also give you dessert and beer. It was awesome. One of the best hotels. More</t>
+  </si>
+  <si>
+    <t>Slo-Lju</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r165470098-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
@@ -1376,6 +1547,9 @@
 I only have two minor complaints - on my second arrival the A/C in my suite was not on, so I got a top-floor suite at almost 100 degrees, it took a while to bring it to "normal temperature". If you have an advance reservation passed your cancelation time I think A/C could be set on for the guest....Stayed at this property on two separate ocassions in June, 2013. The first time I arrived literally in the middle of the night (flight problems), around 3 am. The front desk clerk was as cheerful as if it was 5 pm, very friendly, got me checked-in instantly and I went to sleep immediately. The king suite was great! It appeared as if completely new, lots of space and everything you need for a longer stay. Too bad I was staying just one night. They even left a hand-signed welcome letter bearing my name in the room, since I am a PC Platinum member.Breakfast was nice, although the breakfast area is somewhat small in number of tables and filled up quickly. The hotel was fully booked, though.On my second stay I arrived earlier in the afternoon and decided to use the pool. I was the only person enjoying it for over an hour, It is sizeable and in a nicely landscaped backyard.The second brekfast was not as good as the first one as I was missing fresh strawberries. :(I only have two minor complaints - on my second arrival the A/C in my suite was not on, so I got a top-floor suite at almost 100 degrees, it took a while to bring it to "normal temperature". If you have an advance reservation passed your cancelation time I think A/C could be set on for the guest.My second remark goes for the pool closing hours - 10 pm as posted in the room directory. There was a large group of teenage kids (I counted 9) on my second stay who were louldy playing and partying in the pool area almost until 11 pm. It was bothersome for those trying to get an early sleep. I think front desk should make sure guests adhere to the posted closing time or at least don't make so much noise later ...Otherwise a magnificent property and great two stays! Will be back for sure!More</t>
   </si>
   <si>
+    <t>kernvilledaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r164760461-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1400,6 +1574,9 @@
     <t>After enduring a horrible experience the night before @ another Holiday Inn property in Barstow, CA.  I was very apprehensive about staying at a new HI property. My fears were dashed upon my arrival as I had requested parking for two 36' show trucks.  Upon my arrival, I found plenty of parking.  Then I entered the lobby and was happily greeted by the General Manager asking why we were in Palmdale.  I had reserved two one bedroom suites. They were beautiful and CLEAN!We were invited to a free stake dinner and free beer and wine. Wonderful.The next morning they had a great breakfast (included) and we were on our way.Thanks for a really wonderful experience.....More</t>
   </si>
   <si>
+    <t>Glenda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r161739837-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1427,6 +1604,9 @@
     <t>Our family stayed at the Staybridge Suites in Palmdale, CA for 3 weeks while our home was being renovated. The staff is so friendly and helpful. They accommocated our needs for more silverware, or dishes, etc. We love the amenities that are offered: easy parking, free laundry facilities (very important with 2 boys playing baseball games!), movie theatre you can reserve, basketball half court and soccer net, pool and hot tub. Breakfast and mid-week meal refreshments, coffee and sodas.We stayed in a 1 bedroom with a sofa sleeper, full kitchen, and livingroom, dressing area and bathroom, with a TV in the living room and the bedroom. My 7 and 9 year old boys thought they were at home, they made themselves very comfortable. (This was our 2nd stay at this hotel for an extended time. Great place to work from: Free WIFI, speaker phone, desk, comfortable chair, lots of electical outlets.More</t>
   </si>
   <si>
+    <t>ranles76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r159483140-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1451,6 +1631,9 @@
     <t>Stayed 3 nights on points.  Not upgraded, although platinum.  welcome gift not offered (asked later and got a couple cookies), but we were greeted.  Parking good.  Check in generally good.  Room spacious for standard.  Weekday free "lite dinner", spagetti and meat balls only partically warmed up, both of us got sick that night.  Wine, beer, soda and coffee offered.  Nice salad as well.  Toast.  Must ask for maid service on the weekend.  Breakfast good.  Selection a bit less on weekend.  Seating unavailable on Sunday due to a soccer team and parents/coachs taking all in and out, with the rest of us trying to make it where we could.  Access to food that day tough, but everythng was kept up with by employee!  Problem with HBO access was eventually fixed.  We stay at Priority Club properties often, and would stay here again, if in the area, but would check out the "group bookings" and avoid those nights.  Groups all go to everything at the same time, overwhelming waht ever that service is...pool, breakfast or...  Common space was messy Sunday, but the group of "kids" did not have theri mothers to pick up for them.  the days before everyghing was good...hall floors, elevators and dining room.  ownership must make the choice when making such group bookings...could impact their "general business".  Pillows iffy.  Quiet.  Point score would have varied materially depending on the night in question.More</t>
   </si>
   <si>
+    <t>Steve B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r155338399-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1478,6 +1661,9 @@
     <t>I stay here for a week once a year on extended business and it never disappoints me. The rooms, bed, and kitchen areas are top notch; the breakfast and evening meals are exceptional considering they are included for free. It's the only hotel I've found with a home theater room to watch DVD's. I can't really think of anything they could improve on except maybe better Wi-Fi service, mine was out for two days due to a equipment breakdown. It's very well suited for longer term work travel and I always choose it over Marriot's Residence Inns if I can.More</t>
   </si>
   <si>
+    <t>PinzEOD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r154573800-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1499,6 +1685,9 @@
     <t>The rooms, staff and amenities are exceptional, however the location leaves something to be desired.  I had saddlebags stolen from my motorcycle in broad daylight.  No security cameras, and apparently a random security patrol on site only randomly patrols at night.More</t>
   </si>
   <si>
+    <t>Bob1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r146974942-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1526,6 +1715,9 @@
     <t>We had an overnight stay at the Staybridge Suites, Palmdale on our drive from Las Vegas to San Francisco. The check in was quick if not too friendly and the room was fine. Not as good as the Staybridge Suites in Las Vegas but clean, spacious and good value.We ate the complimentary dinner and it was fine, nothing to write home about but it meant that we didn't have to venture away from the hotel. It included wine and beer between 5.30pm and 7.30pm and the dining area is pleasant enough.Breakfast the next morning was also fine, fruit, cereals, hot and cold selections with juices and coffee.The hotel is somewhat out on a limb in a big town/city in which you need a car to get around.It suited our purpose for the evening as it was on our route but if returning to the area we would probably choose somewhere else other than Palmdale. However, if you are looking for value for money, the Staybridge Suites is on the button! One word of warning, the address is West Park Drive, not Westpark Drive as given by some of the internet booking agents such as Hotels.com. The SatNav only recognised the first with West and Park being two separated words.More</t>
   </si>
   <si>
+    <t>mike747seattle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r146526822-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1547,6 +1739,9 @@
     <t>This was an excellent hotel. Very clean and staff as friendly as they could be. We were surprised by the very nice complementary evening meal, and way above average complementary breakfast.I did not notice on the website, there was a $75 pet fee. Far too much for our small (10#) dog., So, I was disappointed about that. But if you don't have a pet you will enjoy this property, and the meals make it a very good value.More</t>
   </si>
   <si>
+    <t>Kyle H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r146086592-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1565,6 +1760,9 @@
     <t>Stayed in a studio suite for a week on business. Room was nice and clean. The kitchenette was a little cramped and didn't have a stove, but everything else was functional. The bed was very comfortable.Had some problems with the signal strength of their wireless network, but the wall jack worked just fine.The breakfasts were great. Good variety with a lot of options and a lot of hot food. The complimentary dinners during the week were a helpful touch. They weren't fancy, but it's nice not to have to leave the hotel to get dinner.Overall, I'd stay here again, but I'd feel a lot better about it if it wasn't paying so much (or if I was staying on someone else's dime.)More</t>
   </si>
   <si>
+    <t>Dawn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r130881338-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1592,6 +1790,9 @@
     <t>Overall our stay at this facility was very good. Friendly staff, clean rooms and an excellent breakfast. However, upon our return home, we discovered that the $25.00 "incidental" fee was left on our final charges. When my husband called he was informed that the $25.00 fee was kept for 10 hangers that were missing from the room. Missing? Where was I going to stuff 10 hangers as we had two small suitcases and were flying back home across the country?!!!! We were advised to call the manager the following day. I called the manager today and stated that I didn't use the hangers and couldn't possibly have stolen 10 hangers!!! Begrudgingly, they agreed to credit our account. The manager sounded exasperated...I don't think this is the first time she's had this conversation! Just count the hangers when you arrive....and avoid any of this nonsense!More</t>
   </si>
   <si>
+    <t>JRBMW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r128078940-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1614,6 +1815,9 @@
   </si>
   <si>
     <t>My wife had just got out of the hospital after surgery in an out of our state hospital. We didn't know when she would be getting out so we had no reservations. I went to the desk and told Kathy my problem. She gave me a key card to a room to make sure that the handicapped room would fit our problem before checking in. The room was fine and well equipped for a handicapped person.  During our week at the Staybridge I found all the staff to be pleasant and helpful.  The food court people were nice and had the food well stocked at all times. I left an Item in the dining area. Kathy saw I had been sitting in that area and got the item returned to me. Top to bottom the staff wanted to make our stay pleasant, and it was.More</t>
+  </si>
+  <si>
+    <t>Bill G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r126478192-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
@@ -1647,6 +1851,9 @@
 I suppose that if you were one of the lucky ones who had their reservation honored you would give the place a solid rating (and...I booked this room 2 months in advance based upon high ratings from other travelers. And while their reviews may in fact reflect the condition of the hotel I can only assume that they actually got to stay there.  When I checked in (or attempted to check in) after a very long day of travel the clerk (Michael) said that they had no more reservations for that day and insisted that we did not have a reservation.  Upon showing him the confirmation (that included a late arrival guarantee) he then said that we must have cancelled -- again totally wrong. We push harder and then he "fessed up" that our reservation was moved the the MUCH older and lesser sister property of the Holiday Inn. They offered no explanation whatsoever as to why.We went over to the Holiday Inn and all they had to offer was two free drink coupons (mind you that we checked in at 11:30 PM) but the bar closed at 10:00 PM and the coupons were only valid on the day of issue.  The clerk at the Holiday Inn confessed that we were likely moved because we were only staying for one night -- seems this is a common practice since both properties are run by the same General Manager.I suppose that if you were one of the lucky ones who had their reservation honored you would give the place a solid rating (and this has been my experience with other Staybridge Hotels) but the management of the Palmdale Staybridge demonstrates all that is wrong in the hospitality industry.I fully expect that the hotel response will be something to the effect like PalmdaleMike, Manager at Staybridge Suites Palmdale had stated in two other very similar instances -- "I sincerely apologize" ... blah blah blah  ... and "My staff and I would very much like to be your choice of hotel in the furture and do hope you will consider giving us another chance".  Why do you deserve another chance? You could not honor what was your prior commitment so why do I think you will honor it in the future. Empty promises hold no value.More</t>
   </si>
   <si>
+    <t>Passion4Travel4Life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r121213676-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1674,6 +1881,9 @@
     <t>Staybridge Suites was a nice surprise.  The hotel was very clean and offered unexpected amenities.  There was a theater room with over-sized leather chairs and large, mounted flat panel tv.  There was a library area where you could check out books, dvds, and use the computers provided by the hotel. There was a laundry room &amp; the machines didn't require any money/coins to use.  There was also a convenience store &amp; an outside basketball court.  The room provided a refrigerator, microwave, dishes, &amp; a sink, which came in handy.  The bed was very comfortable &amp; the bathroom had space to move around.  The television can be seen from the bed or the sofa, sitting area.  The room also provided a DVD player.  The complimentary breakfast was nice &amp; hot &amp; offered a variety of items.  We were very pleased with the price we paid &amp; what we received.  We definitely will stay @ Staybridge Suites again.More</t>
   </si>
   <si>
+    <t>FutureMrsGroom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r121106999-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1692,6 +1902,9 @@
     <t>What a pleasant place to stay in Palmdale, CA. Every employee I came across was extremely polite and went above an beyond. The hotel offers nice little extras that make you feel like they understand what you need in a hotel (nope, you don't have to pay $5 for that bottle of water left in your room). Will definitely stay here again when I am back in townMore</t>
   </si>
   <si>
+    <t>TahoeFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r120548678-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1710,6 +1923,9 @@
     <t>I stayed one night and was happy with everything this hotel had to offer.  My room was very clean and comfortable and the staff was pleasant and helpful.  The hotel was also easy to locate.  More</t>
   </si>
   <si>
+    <t>SF_Junketeer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r119069308-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1729,6 +1945,9 @@
   </si>
   <si>
     <t>Stayed here for the night before the Leona Valley Inaugural Trail Race in Lake HughesMy Pluses:Free Coffee 24 hours, free breakfast (but will not be able to enjoy it as we have to leave early for the trail race), requested a late check-out and was granted with no extra fee, was asked to stay whatever floor we wanted (they are not that busy on Friday night), welcome coffee tea popcorn,  kitchen utilities/equipment - microwave, refrigerator (good for runners who have to bring their own food), Friendly staff.Cons: None.I may just  have to stay here every year before the Leona Valley Trail Race (this race is also great value and gives out really cool tech shirt)More</t>
+  </si>
+  <si>
+    <t>twosteptweetie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r118895402-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
@@ -1752,6 +1971,9 @@
   <si>
     <t>Spent 4 nights at the Palmdale Staybridge Suites and am already planning a long term stay there next year. Although there were some problems in the first room we were given, the maintenance person arrived just moments after we called the front desk. He handled the inspection professionally and when it was determined that there would possibly be a delay in getting the right parts to fix the ac/heater, we were offered another room and staff to help us move our belongings there if we wished. Unfortunately, it just so happened that the second room also had an issue, but, after moving us to a third room, the assistant manager offered to make an adjustment to our bill due to the inconvenience. Things happen sometimes, but what's most important is how the staff handles  problems that arise, and you couldn't ask for any better treatment than we got from Candace, Russ, Crystal, and the rest of the staff.
 We stayed in a king suite which consisted of a large living area and a separate bedroom with bathroom. Staybridge offers free WiFi in the room with a password guests can get from the front desk. The furnishings in the suite were stylish, functional, and attractive. There was  granite  on the eating island and kitchen countertops, a standard size fridge/freezer (complete with filled ice cube trays), a cute 2 burner stove, a microwave, a dishwasher, a 12 cup coffee pot, a sink,...Spent 4 nights at the Palmdale Staybridge Suites and am already planning a long term stay there next year. Although there were some problems in the first room we were given, the maintenance person arrived just moments after we called the front desk. He handled the inspection professionally and when it was determined that there would possibly be a delay in getting the right parts to fix the ac/heater, we were offered another room and staff to help us move our belongings there if we wished. Unfortunately, it just so happened that the second room also had an issue, but, after moving us to a third room, the assistant manager offered to make an adjustment to our bill due to the inconvenience. Things happen sometimes, but what's most important is how the staff handles  problems that arise, and you couldn't ask for any better treatment than we got from Candace, Russ, Crystal, and the rest of the staff.We stayed in a king suite which consisted of a large living area and a separate bedroom with bathroom. Staybridge offers free WiFi in the room with a password guests can get from the front desk. The furnishings in the suite were stylish, functional, and attractive. There was  granite  on the eating island and kitchen countertops, a standard size fridge/freezer (complete with filled ice cube trays), a cute 2 burner stove, a microwave, a dishwasher, a 12 cup coffee pot, a sink, and cupboards with plates, bowls, mugs, glasses of all kinds, storage containers, and silverware. In a basket on the counter were packets of Wolfgang Puck coffee to make, teabags, sweeteners, and a package of microwaveable popcorn.There was a good size flat screen TV in the living room and another one in the bedroom, along with a DVD player. One can borrow a movie from the hotel's collection downstairs in the business center, by just signing it out (and in) at the front desk. (Likewise with the paperback book collection there). Our room was spotless and everything worked well. Great quality linens and towels, too!Can't say enough positive things for the efficiency and courtesy of the housekeeping staff. In fact, we left a tip for them in the room when we checked out - they were that good!Every morning, the hotel offers a complimentary full breakfast, cafeteria style. Eggs, bacon, sausage, cold cereal, oatmeal (choice of nice toppings), sliced fruit, yogurt, juices, breads, bagels, rolls, make-your-own waffles, and so on. Monday through Thursday, they offer a reception that's also free to guests. Each night, some different main dish is offered, such as chicken wings, BBQ hot dogs &amp; hamburgers, sloppy joes &amp; baked beans, pot roast &amp; steamed veggies while we were there. To go with, they have fresh salad with choice of dressing, sliced melon, salsa and chips, wine, and beer on tap. Totally awesome!The pool is sparkling, as is the hot tub. Was able to do meaningful laps most days and then relax on one of the many poolside reclining chairs or at one of the tables. Bathhouse adjacent to the pool was a great convenience. One can use the nice big BBQ that sits under a shade by the pool.The fitness center is one of the best I've seen - and I always check that out the moment I arrive at any hotel anywhere. Clean, neat, well-equipped! There's a free guest laundry room, too, as well as a room set up like a home theater, with a few rows of 3-4 leather(like?) theater chairs facing the large screen. The business center has 2 computers and a printer guests can use at not charge. Truthfully, there is nothing not to like about the staff or the facility. You should definitely stay at Staybridge - and that's the bottom line. We found it quite reasonably priced and an amazing value!More</t>
+  </si>
+  <si>
+    <t>TheSuperExplorers</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r117814132-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
@@ -1784,6 +2006,9 @@
 There was a small pool out the back with sun loungers, very quiet but just ideal for us to catch some sun. We could even have used the BBQ facilities if...This hotel is brilliant - it will take something really special to better this in Palmdale.We booked in for one night and stayed for three, would have been longer if we could have. We've been travelling California and this was the best hotel of the ten we stayed in by miles.  It was also one of the cheapest.Check in was great and very welcoming, immediately felt at home. The place is very new and absolutely spotless everywhere, cleaning seems to be on-going constantly.We booked a king bed suite and it was amazing. Very comfy big bed, excellent comfy and homely furnishings, full fridge freezer, microwave, hotplates, utensils etc. Two big flatscreen tvs, motion sensor lights - excellent for the bathroom at night. It was unbelievably welcoming and comfortable.We used the gym, again well equipped and good. There were complementary laundry facilities, just had to buy powder at a dollar, and these were very welcoming to wash a few things after two weeks out of a suitcase. Breakfast was continental with a good selection. This included being able to take a few things in a bag to help you through lunch as well. Soft drinks and coffee were also available all day on a complimentary basis.There was a small pool out the back with sun loungers, very quiet but just ideal for us to catch some sun. We could even have used the BBQ facilities if we'd wanted.All the staff were excellent and helpful.  We liked Palmdale, not really touristy, but nice and relaxed. You will need a car to get to most of the town - unless you take up the hotel offer of a free 10mile radius shuttle! Only minor issue is that the air con in the room was a bit noisy and given the climate you can't really avoid using it.This hotel is stunning value for the money and deservedly the best in the region. We couldn't praise it enough. Congratulations to all! More</t>
   </si>
   <si>
+    <t>bobbyop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r108150184-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1811,6 +2036,9 @@
     <t>We have lived in hotels for the past year.  We were lucky enough to have lived at the Palmdale Staybridge twice in the past year, 6 weeks each time.  We loved it here. Wonderful staff.  Always went above and beyond.  If we ever drive through Palmdale without needing a room, we will probably stop in just to say hi to all of our staff friends.  Nice, newer, clean rooms. Comfy beds.Plenty of room in the bathroom areas. Yummy breakfast each day, Light dinner M-T.  Cookout every Wed. - extra yummy.   Free soft drinks/coffee all day. Warm fresh cookies most nights. Free WiFi,  FREE Laundry room with front loader washers! Very Pet Friendly, Nicely landscaped courtyard/pool view from the inner rooms. The only thing I didn't like was the wind.  Palmdale always seems windy and since the hotel doesn't control that it doesn't really seem fair to mention it.  Except to highlight the fact that I was able to swim in the pool any day (even when chilly) because they keep it nice and warm.  So here is how I wrap up our stay.  As I lay in the pool one afternoon, April was cooking my dinner on the grill (with all the wonderful cookout smells) and Milton is hanging out my 3rd story windows cleaning the outside of them for me (cause I'm a clean window freak).  I felt PAMPERED!  This is the only place we will stay when in...We have lived in hotels for the past year.  We were lucky enough to have lived at the Palmdale Staybridge twice in the past year, 6 weeks each time.  We loved it here. Wonderful staff.  Always went above and beyond.  If we ever drive through Palmdale without needing a room, we will probably stop in just to say hi to all of our staff friends.  Nice, newer, clean rooms. Comfy beds.Plenty of room in the bathroom areas. Yummy breakfast each day, Light dinner M-T.  Cookout every Wed. - extra yummy.   Free soft drinks/coffee all day. Warm fresh cookies most nights. Free WiFi,  FREE Laundry room with front loader washers! Very Pet Friendly, Nicely landscaped courtyard/pool view from the inner rooms. The only thing I didn't like was the wind.  Palmdale always seems windy and since the hotel doesn't control that it doesn't really seem fair to mention it.  Except to highlight the fact that I was able to swim in the pool any day (even when chilly) because they keep it nice and warm.  So here is how I wrap up our stay.  As I lay in the pool one afternoon, April was cooking my dinner on the grill (with all the wonderful cookout smells) and Milton is hanging out my 3rd story windows cleaning the outside of them for me (cause I'm a clean window freak).  I felt PAMPERED!  This is the only place we will stay when in Palmdale because it is "Our Only Palmdale Home"More</t>
   </si>
   <si>
+    <t>ElCajonMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r106534247-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1838,6 +2066,9 @@
     <t>The front desk person was great; we got there early and she had no problem checking us in when we got there, without making us feel we were putting them out.  The staff was very professional and personable.  The room was very nice and clean.  The complimentary breakfast was very good and suprisingly had a range of food items to appeal to the whole family.  The coffee was great!  We left my youngest daughter's special pillow and they worked with us to get it shipped back to us in a very timely manner.  Definitely, anytime we have a soccer touranment in Lancaster/Palmdale, this is the first hotel I will check for availability.More</t>
   </si>
   <si>
+    <t>FloridaTrish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r103176609-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1856,6 +2087,9 @@
     <t>This hotel has it all, it's clean, new, comfortable, great staff, comfortable bed.  The only issue I have is that I like feather pillows but the pillows they have were fine.  They provide a delicious light dinner and beer/wine during the week and a good daily breakfast.  They have a big screen TV room, movies you can take to your room, a pool, jacuzzi, tennnis court, and the workout room had machines and a great assortment of free weights!More</t>
   </si>
   <si>
+    <t>LMtraveler13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r96092940-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1874,6 +2108,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>cscs4211</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r91744060-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1892,6 +2129,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>JP106</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r90626133-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1916,6 +2156,9 @@
     <t>Very nice hotel. Staff is great, very helpful.  Breakfast and Social Hour are great. Very clean!More</t>
   </si>
   <si>
+    <t>pinkmama29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r70844025-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1943,6 +2186,9 @@
     <t>we stay here every year as a church group to go to a leadership conference in lancaster. Far from lancaster some but very comfortable and the staff is super friendly. kitchen is great and love the pillows. we stayed in the 2 room suites. i love the free breakfast and dinner, very convenient and free drinks all day except the juices, just during free meals on tues, wed and thurs nights you get free dinner and free breakfast daily. Free wi fi as well and they have a small theatre, nice pool and jacuzzi, very relaxing atmosphere and i'm pretty picky w hotels. new appliances in kitchen, flat screen tv, 1 in each room and dvd player in king bed room. there were 4 of us and did not feel crowded, still had some privacy.  hope this was helpful.More</t>
   </si>
   <si>
+    <t>copumail</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r50594524-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1970,6 +2216,9 @@
     <t>Before making my reservation I had gone out and read other reviews for Staybridge Suites Palmdale. With most of them being rated as “good” I decided to give them a try. This was my first time staying at Staybridge Suites Palmdale and it was a lovely stay. The staff was friendly. The room was clean, and the presentation was immaculate.  The pictures on their site are just how the room looks. My husband and I were amazed that one of their amenities was a small movie theater. They have a 50inch (or could have been larger) LG flat screen T.V. and the large recliner chairs you normally see in the home theaters. They also offered large selections of movies to watch in the theater room or in your room.  All rooms come with DVD players. I had no complaints. My stay there was great.More</t>
   </si>
   <si>
+    <t>RandM_Mac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r50244695-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -1986,6 +2235,9 @@
   </si>
   <si>
     <t>Families beware - Reservations do not mean you have a room at this hotel!!  I had a confirmed 5 night stay at Staybridge Suites in Palmdale, CA.  Upon arrival at 5:30pm, I gave my confirmation number to the front desk associate.  After entering my reservation number in their system, she informed my that they had no rooms available.  Note the I was confirmed for late check-in.  Instead, I was directed to an older Holiday Inn next door (they two hotels are sister companies).  I thought this was an isolated case but the manager at the Holiday Inn had a list of about 10 people that were shifted over to the older hotel.  I was frustrated with the inconvenience.  However, I was not as bad off as the family with 2 small kids sitting in the parking lot trying to decide what to do.  With 2 small kids, the rooms at Holiday Inn would have been tight.I normally book suites so t hat I can save money by cooking in the room.  I mentioned this and their only compensation was a free dessert if I purchased dinner at the Holiday Inn.  I will not  be booking a room at Staybridge or Holiday Inn in Palmdale again.   Sorry I can not give any information on the Staybridge rooms.  I never got to see one.More</t>
+  </si>
+  <si>
+    <t>porttack</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d1139094-r23504662-Staybridge_Suites_Palmdale-Palmdale_California.html</t>
@@ -2508,43 +2760,47 @@
       <c r="A2" t="n">
         <v>56976</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2560,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56976</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2623,50 +2883,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56976</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2686,50 +2950,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56976</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2745,56 +3013,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56976</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2808,50 +3080,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56976</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2871,50 +3147,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56976</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2932,50 +3212,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56976</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2989,50 +3273,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56976</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3046,50 +3334,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56976</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
         <v>115</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3109,50 +3401,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56976</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3172,41 +3468,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56976</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -3225,50 +3525,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56976</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3288,50 +3592,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56976</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3349,50 +3657,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56976</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3410,50 +3722,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56976</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3473,50 +3789,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56976</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3534,50 +3854,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56976</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3597,50 +3921,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56976</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3660,50 +3988,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56976</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>181</v>
       </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>164</v>
-      </c>
       <c r="O21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3723,50 +4055,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56976</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3784,50 +4120,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56976</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3847,50 +4187,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56976</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3910,41 +4254,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56976</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -3963,50 +4311,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56976</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4024,50 +4376,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56976</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4087,50 +4443,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56976</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>244</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4144,50 +4504,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56976</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4203,47 +4567,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="X29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56976</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -4262,50 +4630,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56976</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4323,50 +4695,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56976</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4380,41 +4756,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56976</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="K33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4433,50 +4813,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56976</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4496,50 +4880,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56976</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="O35" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4551,56 +4939,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="X35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="Y35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56976</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>296</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="J36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="K36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4616,56 +5008,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="X36" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="Y36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56976</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="J37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O37" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4683,56 +5079,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="X37" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56976</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4748,47 +5148,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="X38" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="Y38" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56976</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4805,56 +5209,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="X39" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="Y39" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56976</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>325</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="J40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="K40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4872,56 +5280,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="X40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="Y40" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56976</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>335</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4937,56 +5349,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="X41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="Y41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56976</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>345</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="J42" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5004,56 +5420,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="X42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="Y42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56976</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>354</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="J43" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="K43" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5071,56 +5491,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="X43" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="Y43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56976</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>361</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="J44" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="K44" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="O44" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5138,56 +5562,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="X44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56976</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>370</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="J45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="K45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="O45" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5199,56 +5627,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="X45" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="Y45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56976</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="K46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5266,56 +5698,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="X46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="Y46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56976</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>387</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="J47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="O47" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5331,56 +5767,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="X47" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="Y47" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56976</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>396</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="J48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="O48" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5396,56 +5836,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="X48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="Y48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56976</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>406</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="K49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5461,56 +5905,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="X49" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="Y49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56976</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>370</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5522,56 +5970,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="X50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="Y50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56976</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>424</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="J51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5593,56 +6045,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="X51" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="Y51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56976</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="J52" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="K52" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="L52" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5664,56 +6120,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="X52" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="Y52" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56976</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>441</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="J53" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="K53" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="L53" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="O53" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5735,56 +6195,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="X53" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="Y53" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56976</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="K54" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5806,56 +6270,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="X54" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="Y54" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56976</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>460</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="J55" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L55" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5877,56 +6345,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="X55" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="Y55" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56976</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5948,56 +6420,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="X56" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="Y56" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56976</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>479</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="J57" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6019,47 +6495,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="X57" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="Y57" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56976</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>489</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="J58" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="K58" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="L58" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -6086,56 +6566,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="X58" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="Y58" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56976</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>498</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="J59" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="L59" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="O59" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6157,56 +6641,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="X59" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="Y59" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56976</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>507</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="J60" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="K60" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="L60" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6228,56 +6716,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="X60" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="Y60" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56976</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>516</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="J61" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="K61" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="L61" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="O61" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6299,56 +6791,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="X61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="Y61" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56976</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>526</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="J62" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="K62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="L62" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="O62" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6370,56 +6866,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="X62" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="Y62" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56976</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>535</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="J63" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="K63" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="L63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6441,56 +6941,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="X63" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="Y63" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56976</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>545</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="J64" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="K64" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="L64" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6512,56 +7016,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="X64" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="Y64" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56976</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>553</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="J65" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="K65" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="L65" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="O65" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6583,56 +7091,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="X65" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Y65" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56976</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>563</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K66" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="L66" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6654,56 +7166,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="X66" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Y66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56976</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>571</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="J67" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="K67" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="L67" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6723,56 +7239,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="X67" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Y67" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56976</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>578</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="J68" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="K68" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="L68" t="s">
-        <v>517</v>
+        <v>583</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="O68" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6794,56 +7314,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="X68" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="Y68" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56976</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>588</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="J69" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="K69" t="s">
-        <v>525</v>
+        <v>592</v>
       </c>
       <c r="L69" t="s">
-        <v>526</v>
+        <v>593</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="O69" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6865,56 +7389,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>527</v>
+        <v>594</v>
       </c>
       <c r="X69" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="Y69" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>56976</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>597</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="J70" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="K70" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="L70" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6928,56 +7456,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="X70" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="Y70" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>56976</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>607</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="J71" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="K71" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="L71" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="O71" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6999,47 +7531,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="X71" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Y71" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>56976</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>617</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="J72" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K72" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="L72" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -7066,47 +7602,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="X72" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Y72" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>56976</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>624</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>554</v>
+        <v>625</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="J73" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="K73" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="L73" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7133,56 +7673,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="X73" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Y73" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>56976</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>631</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
       <c r="J74" t="s">
-        <v>562</v>
+        <v>634</v>
       </c>
       <c r="K74" t="s">
-        <v>563</v>
+        <v>635</v>
       </c>
       <c r="L74" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="O74" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7204,56 +7748,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="X74" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Y74" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>56976</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>639</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>567</v>
+        <v>640</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>568</v>
+        <v>641</v>
       </c>
       <c r="J75" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="K75" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="L75" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7275,47 +7823,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="X75" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Y75" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>56976</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>647</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="J76" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="L76" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7344,50 +7896,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>56976</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>654</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
       <c r="J77" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="K77" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="L77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7409,56 +7965,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="X77" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="Y77" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>56976</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>664</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="J78" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="K78" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="L78" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="O78" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7480,56 +8040,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="X78" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="Y78" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>56976</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>674</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="J79" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="K79" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="L79" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7551,56 +8115,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="X79" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="Y79" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>56976</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>681</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="J80" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="K80" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="L80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7624,50 +8192,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>56976</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>688</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="J81" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="K81" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="O81" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7691,50 +8263,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>56976</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>695</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7756,56 +8332,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
       <c r="X82" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="Y82" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>56976</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>704</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="J83" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="K83" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="L83" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7827,56 +8407,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="X83" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="Y83" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>56976</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>714</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="J84" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="K84" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="L84" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="O84" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -7888,56 +8472,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="X84" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="Y84" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>56976</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>724</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="J85" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="K85" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="L85" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -7949,56 +8537,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="X85" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="Y85" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>56976</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>731</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="J86" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="K86" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="L86" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8012,7 +8604,7 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
